--- a/xczyNote/报告计算资料/水尺计重模板0311.xlsx
+++ b/xczyNote/报告计算资料/水尺计重模板0311.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B1BB88-966F-45EC-809B-D446E30F9DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Draft Report" sheetId="1" r:id="rId1"/>
@@ -24,12 +23,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">calculate1!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Draft Report'!$A$1:$T$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="273">
   <si>
     <t>船名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1431,11 +1430,50 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100*(qm-ROUND_DRAFT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISP_DRAFT+上边的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp+mc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms+mc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水量+round(100* (qm-查表吃水) )*tpc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="18">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
@@ -2505,7 +2543,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3192,245 +3230,363 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3459,121 +3615,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3609,123 +3650,95 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="19" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="19" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="190" fontId="19" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="19" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="193" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="188" fontId="19" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="20" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3739,95 +3752,141 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="193" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="193" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="19" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="19" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="19" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="190" fontId="19" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="19" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3837,38 +3896,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="19" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="19" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="19" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="14" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="14" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3876,12 +3903,6 @@
     <xf numFmtId="14" fontId="19" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3891,23 +3912,43 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="19" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="19" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="19" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="19" fillId="14" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="19" fillId="14" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="19" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="19" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4008,8 +4049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1320165" y="1114425"/>
-          <a:ext cx="529590" cy="394335"/>
+          <a:off x="1452843" y="1076325"/>
+          <a:ext cx="590550" cy="371475"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -4113,8 +4154,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1301115" y="1884045"/>
-          <a:ext cx="552450" cy="401955"/>
+          <a:off x="1433793" y="1793501"/>
+          <a:ext cx="590550" cy="349064"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -4218,8 +4259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1301115" y="2657475"/>
-          <a:ext cx="552450" cy="381000"/>
+          <a:off x="1433793" y="2480422"/>
+          <a:ext cx="590550" cy="336177"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -4323,8 +4364,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1899285" y="6656070"/>
-          <a:ext cx="567690" cy="752475"/>
+          <a:off x="2098301" y="6189009"/>
+          <a:ext cx="590550" cy="707651"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -4542,8 +4583,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1320165" y="1114425"/>
-          <a:ext cx="529590" cy="394335"/>
+          <a:off x="1457325" y="1085850"/>
+          <a:ext cx="590550" cy="371475"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -4647,8 +4688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1301115" y="1884045"/>
-          <a:ext cx="552450" cy="401955"/>
+          <a:off x="1438275" y="1809750"/>
+          <a:ext cx="590550" cy="352425"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -4752,8 +4793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1301115" y="2657475"/>
-          <a:ext cx="552450" cy="381000"/>
+          <a:off x="1438275" y="2505075"/>
+          <a:ext cx="590550" cy="342900"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -4857,8 +4898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1899285" y="6656070"/>
-          <a:ext cx="567690" cy="752475"/>
+          <a:off x="2105025" y="6267450"/>
+          <a:ext cx="590550" cy="714375"/>
           <a:chOff x="1457325" y="295275"/>
           <a:chExt cx="590550" cy="381000"/>
         </a:xfrm>
@@ -5478,23 +5519,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5530,23 +5554,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5722,224 +5729,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="A13" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="2.75" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="14" max="14" width="5.375" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
     <col min="18" max="18" width="7" style="163" customWidth="1"/>
-    <col min="19" max="19" width="6.77734375" customWidth="1"/>
-    <col min="20" max="20" width="6.88671875" customWidth="1"/>
+    <col min="19" max="19" width="6.75" customWidth="1"/>
+    <col min="20" max="20" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="232" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="248" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="248"/>
     </row>
     <row r="2" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="251" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="236"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="236"/>
+      <c r="A3" s="252"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="252"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="252"/>
       <c r="V3" s="22"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="237" t="str">
+      <c r="B4" s="241" t="str">
         <f>Input!B5&amp;"/Voy"&amp;Input!B6</f>
         <v>华舟1/Voy2006</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="239" t="s">
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="216"/>
-      <c r="P4" s="240" t="str">
+      <c r="O4" s="229"/>
+      <c r="P4" s="254" t="str">
         <f>Input!B8</f>
         <v>煤炭</v>
       </c>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="240"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+    </row>
+    <row r="5" spans="1:23" ht="14.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
-      <c r="M5" s="238"/>
-      <c r="N5" s="216" t="s">
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="216"/>
-      <c r="P5" s="241"/>
-      <c r="Q5" s="241"/>
-      <c r="R5" s="241"/>
-      <c r="S5" s="241"/>
-      <c r="T5" s="241"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="219" t="s">
+      <c r="O5" s="229"/>
+      <c r="P5" s="255"/>
+      <c r="Q5" s="255"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="255"/>
+      <c r="T5" s="255"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25">
+      <c r="A6" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="242" t="str">
+      <c r="H6" s="256" t="str">
         <f>IF(Input!F36=Input1!F36,TEXT(Input1!F36,"yyyy.mm.dd"),TEXT(Input!F36,"YYYY.mm.dd")&amp;" - "&amp;TEXT(Input1!F36,"yyyy.mm.dd"))</f>
         <v>2020.03.10 - 2020.03.11</v>
       </c>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="242"/>
-      <c r="M6" s="242"/>
-      <c r="N6" s="219" t="s">
+      <c r="I6" s="256"/>
+      <c r="J6" s="256"/>
+      <c r="K6" s="256"/>
+      <c r="L6" s="256"/>
+      <c r="M6" s="256"/>
+      <c r="N6" s="214" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="244" t="str">
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="235" t="str">
         <f>"京唐港" &amp;Input!B7</f>
         <v>京唐港30#</v>
       </c>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="244"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="220" t="s">
+    <row r="7" spans="1:23" ht="14.25">
+      <c r="A7" s="206" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="243"/>
-      <c r="N7" s="202" t="s">
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="257"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="244" t="s">
         <v>192</v>
       </c>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="245"/>
-      <c r="R7" s="245"/>
-      <c r="S7" s="245"/>
-      <c r="T7" s="245"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="O7" s="244"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="236"/>
+      <c r="R7" s="236"/>
+      <c r="S7" s="236"/>
+      <c r="T7" s="236"/>
+    </row>
+    <row r="8" spans="1:23" ht="14.25">
       <c r="A8" s="194" t="s">
         <v>222</v>
       </c>
@@ -5950,81 +5957,81 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="237" t="str">
+      <c r="I8" s="241" t="str">
         <f>Input!B11</f>
         <v>福州</v>
       </c>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="219" t="s">
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="214" t="s">
         <v>227</v>
       </c>
-      <c r="O8" s="250"/>
-      <c r="P8" s="250"/>
-      <c r="Q8" s="244" t="str">
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="235" t="str">
         <f>Input!B12</f>
         <v>南通港</v>
       </c>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="220" t="s">
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.25">
+      <c r="A9" s="206" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="220"/>
+      <c r="B9" s="206"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="202" t="s">
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="242"/>
+      <c r="M9" s="242"/>
+      <c r="N9" s="244" t="s">
         <v>193</v>
       </c>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="246" t="s">
+      <c r="O9" s="244"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="236"/>
+      <c r="R9" s="236"/>
+      <c r="S9" s="236"/>
+      <c r="T9" s="236"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.25">
+      <c r="A10" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="220"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="244" t="str">
+      <c r="I10" s="235" t="str">
         <f>Input!F33</f>
         <v>福州开发区新电燃料有限公司</v>
       </c>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="247"/>
-      <c r="N10" s="248"/>
-      <c r="O10" s="248"/>
-      <c r="P10" s="248"/>
-      <c r="Q10" s="247"/>
-      <c r="R10" s="247"/>
-      <c r="S10" s="247"/>
-      <c r="T10" s="247"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="239"/>
+      <c r="P10" s="239"/>
+      <c r="Q10" s="238"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.25">
       <c r="A11" s="25" t="s">
         <v>57</v>
       </c>
@@ -6035,18 +6042,18 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="249"/>
-      <c r="N11" s="249"/>
-      <c r="O11" s="249"/>
-      <c r="P11" s="249"/>
-      <c r="Q11" s="249"/>
-      <c r="R11" s="249"/>
-      <c r="S11" s="249"/>
-      <c r="T11" s="249"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="240"/>
+      <c r="O11" s="240"/>
+      <c r="P11" s="240"/>
+      <c r="Q11" s="240"/>
+      <c r="R11" s="240"/>
+      <c r="S11" s="240"/>
+      <c r="T11" s="240"/>
     </row>
     <row r="12" spans="1:23" ht="4.5" customHeight="1" thickBot="1">
       <c r="A12" s="86"/>
@@ -6070,20 +6077,20 @@
       <c r="S12" s="86"/>
       <c r="T12" s="159"/>
     </row>
-    <row r="13" spans="1:23" ht="16.8">
-      <c r="A13" s="230" t="s">
+    <row r="13" spans="1:23" ht="17.25">
+      <c r="A13" s="215" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="229"/>
-      <c r="K13" s="229"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
       <c r="L13" s="93"/>
       <c r="M13" s="93"/>
       <c r="N13" s="93"/>
@@ -6093,12 +6100,12 @@
         <v>190</v>
       </c>
       <c r="R13" s="162"/>
-      <c r="S13" s="228" t="s">
+      <c r="S13" s="246" t="s">
         <v>191</v>
       </c>
-      <c r="T13" s="229"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="T13" s="247"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.25">
       <c r="A14" s="95" t="s">
         <v>4</v>
       </c>
@@ -6126,20 +6133,20 @@
         <v>1.026</v>
       </c>
       <c r="R14" s="169"/>
-      <c r="S14" s="227">
+      <c r="S14" s="245">
         <f>Input1!F12</f>
         <v>1.026</v>
       </c>
-      <c r="T14" s="227"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="223" t="s">
+      <c r="T14" s="245"/>
+    </row>
+    <row r="15" spans="1:23" ht="15">
+      <c r="A15" s="203" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
@@ -6156,41 +6163,41 @@
       <c r="S15" s="74"/>
       <c r="T15" s="160"/>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="220" t="s">
+    <row r="16" spans="1:23" ht="14.25">
+      <c r="A16" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="220"/>
-      <c r="C16" s="220"/>
-      <c r="D16" s="220"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="220"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
+      <c r="L16" s="206"/>
+      <c r="M16" s="206"/>
+      <c r="N16" s="206"/>
+      <c r="O16" s="206"/>
+      <c r="P16" s="206"/>
       <c r="Q16" s="74"/>
       <c r="R16" s="160"/>
       <c r="S16" s="74"/>
       <c r="T16" s="160"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="219" t="s">
+    <row r="17" spans="1:22" ht="14.25">
+      <c r="A17" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="220"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6199,18 +6206,18 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="207">
+      <c r="Q17" s="231">
         <f>calculate!F7</f>
         <v>4.0649999999999995</v>
       </c>
       <c r="R17" s="161"/>
-      <c r="S17" s="207">
+      <c r="S17" s="231">
         <f>calculate1!F7</f>
         <v>10.28</v>
       </c>
-      <c r="T17" s="208"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="T17" s="232"/>
+    </row>
+    <row r="18" spans="1:22" ht="14.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -6223,32 +6230,35 @@
         <v>9</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="252" t="s">
+      <c r="I18" s="226" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="209"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="208"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="233"/>
       <c r="R18" s="161"/>
-      <c r="S18" s="209"/>
-      <c r="T18" s="210"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="219" t="s">
+      <c r="S18" s="233"/>
+      <c r="T18" s="220"/>
+      <c r="V18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.25">
+      <c r="A19" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="220"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6257,55 +6267,58 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="217">
+      <c r="Q19" s="234">
         <f>calculate!F11</f>
         <v>4.04</v>
       </c>
       <c r="R19" s="161"/>
-      <c r="S19" s="207">
+      <c r="S19" s="231">
         <f>calculate1!F11</f>
         <v>10.34</v>
       </c>
-      <c r="T19" s="208"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="220" t="s">
+      <c r="T19" s="232"/>
+    </row>
+    <row r="20" spans="1:22" ht="14.25">
+      <c r="A20" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="220"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="253" t="s">
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="218"/>
-      <c r="Q20" s="217"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="208"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="234"/>
       <c r="R20" s="161"/>
-      <c r="S20" s="209"/>
-      <c r="T20" s="210"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="S20" s="233"/>
+      <c r="T20" s="220"/>
+      <c r="V20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.25">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="216" t="s">
+      <c r="E21" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="216"/>
-      <c r="G21" s="216"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="229"/>
       <c r="H21" s="6"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -6315,55 +6328,58 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="251">
+      <c r="Q21" s="230">
         <f>calculate!B14+calculate!E15</f>
         <v>4.03</v>
       </c>
       <c r="R21" s="161"/>
-      <c r="S21" s="207">
+      <c r="S21" s="231">
         <f>calculate1!B14+calculate1!E15</f>
         <v>10.36</v>
       </c>
-      <c r="T21" s="208"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="220" t="s">
+      <c r="T21" s="232"/>
+    </row>
+    <row r="22" spans="1:22" ht="14.25">
+      <c r="A22" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="220"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="253" t="s">
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="251"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="208"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="230"/>
       <c r="R22" s="161"/>
-      <c r="S22" s="209"/>
-      <c r="T22" s="210"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="S22" s="233"/>
+      <c r="T22" s="220"/>
+      <c r="V22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="216" t="s">
+      <c r="E23" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -6373,18 +6389,18 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="217">
+      <c r="Q23" s="234">
         <f>calculate!B16+calculate!E15</f>
         <v>3.98</v>
       </c>
       <c r="R23" s="161"/>
-      <c r="S23" s="207">
+      <c r="S23" s="231">
         <f>calculate1!B16+calculate1!E15</f>
         <v>10.4</v>
       </c>
-      <c r="T23" s="208"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="T23" s="232"/>
+    </row>
+    <row r="24" spans="1:22" ht="14.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -6397,32 +6413,35 @@
       <c r="H24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="218" t="s">
+      <c r="I24" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="217"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="208"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="208"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="234"/>
       <c r="R24" s="161"/>
-      <c r="S24" s="209"/>
-      <c r="T24" s="210"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="219" t="s">
+      <c r="S24" s="233"/>
+      <c r="T24" s="220"/>
+      <c r="V24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.25">
+      <c r="A25" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="220"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="220"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -6431,31 +6450,31 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="217">
+      <c r="Q25" s="234">
         <f>calculate!H12</f>
         <v>4.0170000000000003</v>
       </c>
       <c r="R25" s="161"/>
-      <c r="S25" s="207">
+      <c r="S25" s="231">
         <f>calculate1!H12</f>
         <v>10.363</v>
       </c>
-      <c r="T25" s="208"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="220" t="s">
+      <c r="T25" s="232"/>
+    </row>
+    <row r="26" spans="1:22" ht="14.25">
+      <c r="A26" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="222"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="222"/>
-      <c r="E26" s="222"/>
-      <c r="F26" s="222"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="222"/>
+      <c r="B26" s="263"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="263"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="263"/>
+      <c r="K26" s="263"/>
       <c r="L26" s="5" t="s">
         <v>22</v>
       </c>
@@ -6463,23 +6482,26 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="217"/>
+      <c r="Q26" s="234"/>
       <c r="R26" s="161"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="210"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="219" t="s">
+      <c r="S26" s="233"/>
+      <c r="T26" s="220"/>
+      <c r="V26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="14.25">
+      <c r="A27" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="220"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="220"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -6487,18 +6509,18 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="221">
+      <c r="Q27" s="201">
         <f>calculate!G21</f>
         <v>12140.199999999999</v>
       </c>
       <c r="R27" s="158"/>
-      <c r="S27" s="211">
+      <c r="S27" s="258">
         <f>calculate1!G21</f>
         <v>33598</v>
       </c>
-      <c r="T27" s="211"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="T27" s="258"/>
+    </row>
+    <row r="28" spans="1:22" ht="14.25">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -6514,49 +6536,52 @@
       <c r="K28" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="L28" s="252" t="s">
+      <c r="L28" s="226" t="s">
         <v>206</v>
       </c>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="218"/>
-      <c r="Q28" s="221"/>
+      <c r="M28" s="208"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="201"/>
       <c r="R28" s="158"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="212"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="223" t="s">
+      <c r="S28" s="259"/>
+      <c r="T28" s="259"/>
+      <c r="V28" s="193" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15">
+      <c r="A29" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="226"/>
-      <c r="M29" s="226"/>
-      <c r="N29" s="226"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="264"/>
+      <c r="L29" s="265"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="265"/>
       <c r="O29" s="3"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="221">
+      <c r="Q29" s="201">
         <f>calculate!G26</f>
         <v>12151.999999999998</v>
       </c>
       <c r="R29" s="158"/>
-      <c r="S29" s="213">
+      <c r="S29" s="260">
         <f>calculate1!G26</f>
         <v>33635.4</v>
       </c>
-      <c r="T29" s="214"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="T29" s="261"/>
+    </row>
+    <row r="30" spans="1:22" ht="14.25">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -6571,26 +6596,26 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="219" t="s">
+      <c r="M30" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="222"/>
-      <c r="O30" s="222"/>
-      <c r="P30" s="222"/>
-      <c r="Q30" s="221"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="263"/>
+      <c r="Q30" s="201"/>
       <c r="R30" s="158"/>
-      <c r="S30" s="212"/>
-      <c r="T30" s="215"/>
-    </row>
-    <row r="31" spans="1:20" s="31" customFormat="1" ht="6" customHeight="1" thickBot="1">
-      <c r="A31" s="257"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
+      <c r="S30" s="259"/>
+      <c r="T30" s="262"/>
+    </row>
+    <row r="31" spans="1:22" s="31" customFormat="1" ht="6" customHeight="1" thickBot="1">
+      <c r="A31" s="227"/>
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
       <c r="I31" s="45"/>
       <c r="J31" s="45"/>
       <c r="K31" s="45"/>
@@ -6604,7 +6629,7 @@
       <c r="S31" s="46"/>
       <c r="T31" s="46"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:22" ht="14.25">
       <c r="A32" s="2" t="s">
         <v>198</v>
       </c>
@@ -6623,44 +6648,44 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="221">
+      <c r="Q32" s="201">
         <f>calculate!E37</f>
         <v>311.39999999999998</v>
       </c>
       <c r="R32" s="158"/>
-      <c r="S32" s="254">
+      <c r="S32" s="224">
         <f>calculate1!E37</f>
         <v>310.2</v>
       </c>
-      <c r="T32" s="255"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="T32" s="225"/>
+    </row>
+    <row r="33" spans="1:20" ht="14.25">
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="253" t="s">
+      <c r="B33" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="218"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="218"/>
-      <c r="N33" s="218"/>
-      <c r="O33" s="218"/>
-      <c r="P33" s="218"/>
-      <c r="Q33" s="221"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="208"/>
+      <c r="L33" s="208"/>
+      <c r="M33" s="208"/>
+      <c r="N33" s="208"/>
+      <c r="O33" s="208"/>
+      <c r="P33" s="208"/>
+      <c r="Q33" s="201"/>
       <c r="R33" s="158"/>
-      <c r="S33" s="256"/>
-      <c r="T33" s="256"/>
-    </row>
-    <row r="34" spans="1:20" s="72" customFormat="1">
+      <c r="S33" s="202"/>
+      <c r="T33" s="202"/>
+    </row>
+    <row r="34" spans="1:20" s="72" customFormat="1" ht="14.25">
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
@@ -6679,51 +6704,51 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="221">
+      <c r="Q34" s="201">
         <f>calculate!B40</f>
         <v>80</v>
       </c>
       <c r="R34" s="158"/>
-      <c r="S34" s="221">
+      <c r="S34" s="201">
         <f>calculate1!B40</f>
         <v>76.400000000000006</v>
       </c>
-      <c r="T34" s="256"/>
-    </row>
-    <row r="35" spans="1:20" s="72" customFormat="1">
-      <c r="A35" s="220" t="s">
+      <c r="T34" s="202"/>
+    </row>
+    <row r="35" spans="1:20" s="72" customFormat="1" ht="14.25">
+      <c r="A35" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="220"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="253" t="s">
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="218"/>
-      <c r="K35" s="218"/>
-      <c r="L35" s="218"/>
-      <c r="M35" s="218"/>
-      <c r="N35" s="218"/>
-      <c r="O35" s="218"/>
-      <c r="P35" s="218"/>
-      <c r="Q35" s="221"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="208"/>
+      <c r="M35" s="208"/>
+      <c r="N35" s="208"/>
+      <c r="O35" s="208"/>
+      <c r="P35" s="208"/>
+      <c r="Q35" s="201"/>
       <c r="R35" s="158"/>
-      <c r="S35" s="256"/>
-      <c r="T35" s="256"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="219" t="s">
+      <c r="S35" s="202"/>
+      <c r="T35" s="202"/>
+    </row>
+    <row r="36" spans="1:20" ht="14.25">
+      <c r="A36" s="214" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="220"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="8"/>
@@ -6735,44 +6760,44 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="221">
+      <c r="Q36" s="201">
         <f>calculate!B42</f>
         <v>5372.5</v>
       </c>
       <c r="R36" s="158"/>
-      <c r="S36" s="221">
+      <c r="S36" s="201">
         <f>calculate1!B42</f>
         <v>180.7</v>
       </c>
-      <c r="T36" s="256"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="220" t="s">
+      <c r="T36" s="202"/>
+    </row>
+    <row r="37" spans="1:20" ht="14.25">
+      <c r="A37" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="220"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
-      <c r="E37" s="253" t="s">
+      <c r="B37" s="206"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="218"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="218"/>
-      <c r="J37" s="218"/>
-      <c r="K37" s="218"/>
-      <c r="L37" s="218"/>
-      <c r="M37" s="218"/>
-      <c r="N37" s="218"/>
-      <c r="O37" s="218"/>
-      <c r="P37" s="218"/>
-      <c r="Q37" s="221"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="208"/>
+      <c r="L37" s="208"/>
+      <c r="M37" s="208"/>
+      <c r="N37" s="208"/>
+      <c r="O37" s="208"/>
+      <c r="P37" s="208"/>
+      <c r="Q37" s="201"/>
       <c r="R37" s="158"/>
-      <c r="S37" s="256"/>
-      <c r="T37" s="256"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="S37" s="202"/>
+      <c r="T37" s="202"/>
+    </row>
+    <row r="38" spans="1:20" ht="14.25">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -6793,51 +6818,51 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="268">
+      <c r="Q38" s="205">
         <f>calculate!B44</f>
         <v>0</v>
       </c>
       <c r="R38" s="170"/>
-      <c r="S38" s="221">
+      <c r="S38" s="201">
         <f>calculate1!B44</f>
         <v>0</v>
       </c>
-      <c r="T38" s="256"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="220" t="s">
+      <c r="T38" s="202"/>
+    </row>
+    <row r="39" spans="1:20" ht="14.25">
+      <c r="A39" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="220"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="253" t="s">
+      <c r="B39" s="206"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="218"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="218"/>
-      <c r="N39" s="218"/>
-      <c r="O39" s="218"/>
-      <c r="P39" s="218"/>
-      <c r="Q39" s="268"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="208"/>
+      <c r="L39" s="208"/>
+      <c r="M39" s="208"/>
+      <c r="N39" s="208"/>
+      <c r="O39" s="208"/>
+      <c r="P39" s="208"/>
+      <c r="Q39" s="205"/>
       <c r="R39" s="170"/>
-      <c r="S39" s="256"/>
-      <c r="T39" s="256"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="223" t="s">
+      <c r="S39" s="202"/>
+      <c r="T39" s="202"/>
+    </row>
+    <row r="40" spans="1:20" ht="15">
+      <c r="A40" s="203" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="224"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="27"/>
@@ -6849,42 +6874,42 @@
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
       <c r="P40" s="27"/>
-      <c r="Q40" s="221">
+      <c r="Q40" s="201">
         <f>calculate!B46</f>
         <v>5763.9</v>
       </c>
       <c r="R40" s="158"/>
-      <c r="S40" s="221">
+      <c r="S40" s="201">
         <f>calculate1!B46</f>
         <v>567.29999999999995</v>
       </c>
-      <c r="T40" s="256"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="220" t="s">
+      <c r="T40" s="202"/>
+    </row>
+    <row r="41" spans="1:20" ht="14.25">
+      <c r="A41" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="253" t="s">
+      <c r="B41" s="206"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="218"/>
-      <c r="J41" s="218"/>
-      <c r="K41" s="218"/>
-      <c r="L41" s="218"/>
-      <c r="M41" s="218"/>
-      <c r="N41" s="218"/>
-      <c r="O41" s="218"/>
-      <c r="P41" s="218"/>
-      <c r="Q41" s="221"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="208"/>
+      <c r="K41" s="208"/>
+      <c r="L41" s="208"/>
+      <c r="M41" s="208"/>
+      <c r="N41" s="208"/>
+      <c r="O41" s="208"/>
+      <c r="P41" s="208"/>
+      <c r="Q41" s="201"/>
       <c r="R41" s="158"/>
-      <c r="S41" s="256"/>
-      <c r="T41" s="256"/>
+      <c r="S41" s="202"/>
+      <c r="T41" s="202"/>
     </row>
     <row r="42" spans="1:20" s="72" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
       <c r="A42" s="68"/>
@@ -6908,17 +6933,17 @@
       <c r="S42" s="75"/>
       <c r="T42" s="75"/>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="219" t="s">
+    <row r="43" spans="1:20" ht="14.25">
+      <c r="A43" s="214" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="220"/>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="220"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
+      <c r="B43" s="206"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="206"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
       <c r="I43" s="73"/>
       <c r="J43" s="73"/>
       <c r="K43" s="73"/>
@@ -6927,15 +6952,15 @@
       <c r="N43" s="73"/>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
-      <c r="Q43" s="265">
+      <c r="Q43" s="221">
         <f>Input!F6</f>
         <v>6252.1</v>
       </c>
-      <c r="R43" s="266"/>
-      <c r="S43" s="266"/>
-      <c r="T43" s="266"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="R43" s="222"/>
+      <c r="S43" s="222"/>
+      <c r="T43" s="222"/>
+    </row>
+    <row r="44" spans="1:20" ht="14.25">
       <c r="A44" s="71" t="s">
         <v>69</v>
       </c>
@@ -6964,22 +6989,22 @@
       <c r="P44" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="Q44" s="267"/>
-      <c r="R44" s="210"/>
-      <c r="S44" s="210"/>
-      <c r="T44" s="210"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="219" t="s">
+      <c r="Q44" s="223"/>
+      <c r="R44" s="220"/>
+      <c r="S44" s="220"/>
+      <c r="T44" s="220"/>
+    </row>
+    <row r="45" spans="1:20" ht="14.25">
+      <c r="A45" s="214" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
       <c r="I45" s="73"/>
       <c r="J45" s="73"/>
       <c r="K45" s="73"/>
@@ -6988,19 +7013,19 @@
       <c r="N45" s="73"/>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
-      <c r="Q45" s="262">
+      <c r="Q45" s="217">
         <f>Input!F10</f>
         <v>136</v>
       </c>
-      <c r="R45" s="263"/>
-      <c r="S45" s="263"/>
-      <c r="T45" s="263"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="220" t="s">
+      <c r="R45" s="218"/>
+      <c r="S45" s="218"/>
+      <c r="T45" s="218"/>
+    </row>
+    <row r="46" spans="1:20" ht="14.25">
+      <c r="A46" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="220"/>
+      <c r="B46" s="206"/>
       <c r="C46" s="70"/>
       <c r="D46" s="70"/>
       <c r="E46" s="70"/>
@@ -7025,10 +7050,10 @@
       <c r="P46" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="Q46" s="264"/>
-      <c r="R46" s="210"/>
-      <c r="S46" s="210"/>
-      <c r="T46" s="210"/>
+      <c r="Q46" s="219"/>
+      <c r="R46" s="220"/>
+      <c r="S46" s="220"/>
+      <c r="T46" s="220"/>
     </row>
     <row r="47" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A47" s="40"/>
@@ -7052,14 +7077,14 @@
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
     </row>
-    <row r="48" spans="1:20" s="72" customFormat="1">
-      <c r="A48" s="230" t="s">
+    <row r="48" spans="1:20" s="72" customFormat="1" ht="15">
+      <c r="A48" s="215" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="231"/>
-      <c r="C48" s="231"/>
-      <c r="D48" s="231"/>
-      <c r="E48" s="231"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
       <c r="F48" s="92"/>
       <c r="G48" s="92"/>
       <c r="H48" s="93"/>
@@ -7071,39 +7096,39 @@
       <c r="N48" s="93"/>
       <c r="O48" s="93"/>
       <c r="P48" s="93"/>
-      <c r="Q48" s="259" t="str">
+      <c r="Q48" s="211" t="str">
         <f>"---"&amp;ROUND(ABS((Q29-Q40)-(S29-S40)),0)&amp;"---"&amp;"MT"</f>
         <v>---26680---MT</v>
       </c>
-      <c r="R48" s="259"/>
-      <c r="S48" s="259"/>
-      <c r="T48" s="259"/>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="261" t="s">
+      <c r="R48" s="211"/>
+      <c r="S48" s="211"/>
+      <c r="T48" s="211"/>
+    </row>
+    <row r="49" spans="1:20" ht="14.25">
+      <c r="A49" s="213" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="261"/>
-      <c r="C49" s="261"/>
-      <c r="D49" s="261"/>
-      <c r="E49" s="204" t="s">
+      <c r="B49" s="213"/>
+      <c r="C49" s="213"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="205"/>
-      <c r="G49" s="205"/>
-      <c r="H49" s="205"/>
-      <c r="I49" s="205"/>
-      <c r="J49" s="205"/>
-      <c r="K49" s="205"/>
-      <c r="L49" s="205"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="205"/>
-      <c r="O49" s="205"/>
-      <c r="P49" s="205"/>
-      <c r="Q49" s="260"/>
-      <c r="R49" s="260"/>
-      <c r="S49" s="260"/>
-      <c r="T49" s="260"/>
+      <c r="F49" s="210"/>
+      <c r="G49" s="210"/>
+      <c r="H49" s="210"/>
+      <c r="I49" s="210"/>
+      <c r="J49" s="210"/>
+      <c r="K49" s="210"/>
+      <c r="L49" s="210"/>
+      <c r="M49" s="210"/>
+      <c r="N49" s="210"/>
+      <c r="O49" s="210"/>
+      <c r="P49" s="210"/>
+      <c r="Q49" s="212"/>
+      <c r="R49" s="212"/>
+      <c r="S49" s="212"/>
+      <c r="T49" s="212"/>
     </row>
     <row r="50" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A50" s="45"/>
@@ -7127,7 +7152,7 @@
       <c r="S50" s="45"/>
       <c r="T50" s="45"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" ht="14.25">
       <c r="A51" s="87" t="s">
         <v>177</v>
       </c>
@@ -7138,22 +7163,22 @@
       <c r="F51" s="89"/>
       <c r="G51" s="89"/>
       <c r="H51" s="89"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="200"/>
-      <c r="K51" s="200"/>
-      <c r="L51" s="200"/>
-      <c r="M51" s="200"/>
-      <c r="N51" s="204" t="s">
+      <c r="I51" s="266"/>
+      <c r="J51" s="266"/>
+      <c r="K51" s="266"/>
+      <c r="L51" s="266"/>
+      <c r="M51" s="266"/>
+      <c r="N51" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="205"/>
-      <c r="P51" s="205"/>
-      <c r="Q51" s="202"/>
-      <c r="R51" s="202"/>
-      <c r="S51" s="202"/>
-      <c r="T51" s="202"/>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="O51" s="210"/>
+      <c r="P51" s="210"/>
+      <c r="Q51" s="244"/>
+      <c r="R51" s="244"/>
+      <c r="S51" s="244"/>
+      <c r="T51" s="244"/>
+    </row>
+    <row r="52" spans="1:20" ht="14.25">
       <c r="A52" s="84" t="s">
         <v>178</v>
       </c>
@@ -7164,22 +7189,22 @@
       <c r="F52" s="90"/>
       <c r="G52" s="91"/>
       <c r="H52" s="91"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="205" t="s">
+      <c r="I52" s="267"/>
+      <c r="J52" s="267"/>
+      <c r="K52" s="267"/>
+      <c r="L52" s="267"/>
+      <c r="M52" s="267"/>
+      <c r="N52" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="O52" s="205"/>
-      <c r="P52" s="205"/>
-      <c r="Q52" s="203"/>
-      <c r="R52" s="203"/>
-      <c r="S52" s="203"/>
-      <c r="T52" s="203"/>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="O52" s="210"/>
+      <c r="P52" s="210"/>
+      <c r="Q52" s="268"/>
+      <c r="R52" s="268"/>
+      <c r="S52" s="268"/>
+      <c r="T52" s="268"/>
+    </row>
+    <row r="53" spans="1:20" ht="14.25">
       <c r="A53" s="87" t="s">
         <v>158</v>
       </c>
@@ -7192,23 +7217,23 @@
       <c r="F53" s="89"/>
       <c r="G53" s="89"/>
       <c r="H53" s="89"/>
-      <c r="I53" s="200" t="str">
+      <c r="I53" s="266" t="str">
         <f>Input!F13&amp;"                        "&amp;Input!F14</f>
         <v xml:space="preserve">WX16-001                        </v>
       </c>
-      <c r="J53" s="200"/>
-      <c r="K53" s="200"/>
-      <c r="L53" s="200"/>
-      <c r="M53" s="206"/>
-      <c r="N53" s="206"/>
-      <c r="O53" s="206"/>
-      <c r="P53" s="206"/>
-      <c r="Q53" s="206"/>
-      <c r="R53" s="206"/>
-      <c r="S53" s="206"/>
-      <c r="T53" s="206"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="J53" s="266"/>
+      <c r="K53" s="266"/>
+      <c r="L53" s="266"/>
+      <c r="M53" s="269"/>
+      <c r="N53" s="269"/>
+      <c r="O53" s="269"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="269"/>
+      <c r="S53" s="269"/>
+      <c r="T53" s="269"/>
+    </row>
+    <row r="54" spans="1:20" ht="14.25">
       <c r="A54" s="85"/>
       <c r="B54" s="82"/>
       <c r="C54" s="82"/>
@@ -7217,11 +7242,11 @@
       <c r="F54" s="82"/>
       <c r="G54" s="83"/>
       <c r="H54" s="83"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="200"/>
-      <c r="K54" s="200"/>
-      <c r="L54" s="200"/>
-      <c r="M54" s="200"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="266"/>
       <c r="N54" s="47"/>
       <c r="O54" s="47"/>
       <c r="P54" s="47"/>
@@ -7234,24 +7259,65 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="93">
-    <mergeCell ref="S38:T39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="S40:T41"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="E49:P49"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:P41"/>
-    <mergeCell ref="Q48:T49"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="Q45:T46"/>
-    <mergeCell ref="Q43:T44"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="Q51:T52"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="I53:T53"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:T3"/>
+    <mergeCell ref="B4:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:T5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H6:M7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="I10:T11"/>
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:P20"/>
     <mergeCell ref="S32:T33"/>
     <mergeCell ref="S34:T35"/>
     <mergeCell ref="S36:T37"/>
@@ -7268,65 +7334,24 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="E37:P37"/>
     <mergeCell ref="A31:H31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:P20"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="I10:T11"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:T3"/>
-    <mergeCell ref="B4:M5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:T5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H6:M7"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="S27:T28"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="Q51:T52"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="I53:T53"/>
+    <mergeCell ref="E49:P49"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:P41"/>
+    <mergeCell ref="Q48:T49"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="Q45:T46"/>
+    <mergeCell ref="Q43:T44"/>
+    <mergeCell ref="S38:T39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="S40:T41"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:P39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7341,24 +7366,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:H33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="21"/>
-    <col min="5" max="5" width="10.33203125" style="21" customWidth="1"/>
-    <col min="6" max="7" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="21" customWidth="1"/>
-    <col min="10" max="12" width="9" style="21"/>
-    <col min="13" max="13" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="21" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="21" customWidth="1"/>
+    <col min="10" max="11" width="9" style="21"/>
+    <col min="12" max="12" width="22.5" style="21" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="21"/>
-    <col min="15" max="15" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -7366,11 +7392,11 @@
       <c r="B1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="299" t="s">
+      <c r="G1" s="270" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="21" t="s">
@@ -7381,13 +7407,13 @@
       <c r="B4" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="281" t="str">
+      <c r="C4" s="289" t="str">
         <f>Input!B5</f>
         <v>华舟1</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
       <c r="H4" s="80" t="s">
         <v>157</v>
       </c>
@@ -7422,13 +7448,13 @@
         <f>ROUND(D11-D7,3)</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="K6" s="291"/>
-      <c r="L6" s="291"/>
-      <c r="N6" s="291"/>
-      <c r="O6" s="291"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
+      <c r="N6" s="285"/>
+      <c r="O6" s="285"/>
       <c r="P6" s="62"/>
     </row>
-    <row r="7" spans="1:17" ht="16.8">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="63" t="s">
         <v>74</v>
       </c>
@@ -7452,10 +7478,10 @@
         <f>ROUND(F11-F7,3)</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="N7" s="291"/>
-      <c r="O7" s="291"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="285"/>
       <c r="P7" s="62"/>
     </row>
     <row r="8" spans="1:17">
@@ -7468,20 +7494,20 @@
       </c>
       <c r="D8" s="103"/>
       <c r="F8" s="59"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="N8" s="291"/>
-      <c r="O8" s="291"/>
+      <c r="K8" s="288"/>
+      <c r="L8" s="288"/>
+      <c r="N8" s="285"/>
+      <c r="O8" s="285"/>
     </row>
     <row r="9" spans="1:17">
       <c r="D9" s="60"/>
       <c r="F9" s="80"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="291"/>
-      <c r="N9" s="291"/>
-      <c r="O9" s="291"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.6">
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.25">
       <c r="A10" s="61" t="s">
         <v>72</v>
       </c>
@@ -7499,17 +7525,17 @@
       <c r="G10" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="293">
+      <c r="H10" s="287">
         <f>SUM(F15*6+F11+F7)/8</f>
         <v>4.0168749999999998</v>
       </c>
-      <c r="I10" s="293"/>
-      <c r="K10" s="291"/>
-      <c r="L10" s="291"/>
-      <c r="M10" s="291"/>
-      <c r="N10" s="291"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.8">
+      <c r="I10" s="287"/>
+      <c r="K10" s="285"/>
+      <c r="L10" s="285"/>
+      <c r="M10" s="285"/>
+      <c r="N10" s="285"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.25">
       <c r="A11" s="63" t="s">
         <v>76</v>
       </c>
@@ -7526,7 +7552,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.6">
+    <row r="12" spans="1:17" ht="14.25">
       <c r="A12" s="61" t="s">
         <v>73</v>
       </c>
@@ -7539,11 +7565,11 @@
       <c r="G12" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="292">
+      <c r="H12" s="286">
         <f>ROUND(H10,3)-Input!F11</f>
         <v>4.0170000000000003</v>
       </c>
-      <c r="I12" s="292"/>
+      <c r="I12" s="286"/>
     </row>
     <row r="13" spans="1:17">
       <c r="D13" s="60"/>
@@ -7571,7 +7597,7 @@
       <c r="M14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6">
+    <row r="15" spans="1:17">
       <c r="A15" s="65" t="s">
         <v>75</v>
       </c>
@@ -7591,11 +7617,11 @@
       <c r="G15" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="284">
+      <c r="H15" s="295">
         <f>Input!B33</f>
         <v>4.0179999999999998</v>
       </c>
-      <c r="I15" s="284"/>
+      <c r="I15" s="295"/>
       <c r="K15" s="49"/>
       <c r="M15" s="50"/>
       <c r="O15" s="50"/>
@@ -7610,305 +7636,318 @@
         <v>3.98</v>
       </c>
       <c r="D16" s="53"/>
-      <c r="H16" s="285"/>
-      <c r="I16" s="285"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="296"/>
       <c r="K16" s="50"/>
       <c r="M16" s="49"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="H17" s="286">
+    <row r="17" spans="1:15">
+      <c r="H17" s="297">
         <f>Input!B34</f>
         <v>12143.4</v>
       </c>
-      <c r="I17" s="287"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I17" s="298"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="H18" s="298"/>
+      <c r="I18" s="298"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
-      <c r="A20" s="295" t="s">
+    <row r="20" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A20" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="289" t="str">
+      <c r="B20" s="279" t="str">
         <f>TEXT(Input!F7,"0.000")&amp;"*"&amp;TEXT(I6,"0.000")</f>
         <v>0.000*-0.025</v>
       </c>
-      <c r="C20" s="290"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="280" t="str">
+      <c r="C20" s="280"/>
+      <c r="D20" s="280"/>
+      <c r="E20" s="278" t="str">
         <f>IF(E7&lt;0,"="&amp;TEXT(E7,"0.000"),"= "&amp;TEXT(E7,"0.000"))</f>
         <v>= 0.000</v>
       </c>
-      <c r="G20" s="275" t="str">
+      <c r="G20" s="306" t="str">
         <f>ROUND(100*(H12-H15),1)&amp;"*"&amp;TEXT(Input!B35,"0.000")&amp;"="&amp;ROUND(100*(H12-H15)*Input!B35,1)</f>
         <v>-0.1*32.309=-3.2</v>
       </c>
-      <c r="H20" s="276"/>
+      <c r="H20" s="307"/>
       <c r="I20" s="79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="280"/>
-      <c r="B21" s="296" t="str">
+      <c r="L20" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="N20" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="O20" s="200"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="278"/>
+      <c r="B21" s="282" t="str">
         <f>TEXT(Input!F5,"0.00")&amp;"-("&amp;TEXT(ABS(Input!F7),"0.000")&amp;"+"&amp;TEXT(ABS(Input!F9),"0.000")&amp;")"</f>
         <v>149.80-(0.000+0.000)</v>
       </c>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="280"/>
-      <c r="G21" s="279">
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="278"/>
+      <c r="G21" s="293">
         <f>Input!B34+ROUND(100*(H12-H15)*Input!B35,1)</f>
         <v>12140.199999999999</v>
       </c>
-      <c r="H21" s="279"/>
+      <c r="H21" s="293"/>
       <c r="I21" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
-      <c r="A22" s="295" t="s">
+      <c r="L21" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A22" s="277" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="289" t="str">
+      <c r="B22" s="279" t="str">
         <f>TEXT(Input!F8,"0.000")&amp;"*"&amp;TEXT(I6,"0.000")</f>
         <v>0.000*-0.025</v>
       </c>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="288" t="str">
+      <c r="C22" s="280"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="299" t="str">
         <f>IF(E15&lt;0,"="&amp;TEXT(E15,"0.000"),"= "&amp;TEXT(E15,"0.000"))</f>
         <v>= 0.000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="280"/>
-      <c r="B23" s="296" t="str">
+    <row r="23" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A23" s="278"/>
+      <c r="B23" s="282" t="str">
         <f>TEXT(Input!F5,"0.00")&amp;"-("&amp;TEXT(ABS(Input!F7),"0.000")&amp;"+"&amp;TEXT(ABS(Input!F9),"0.000")&amp;")"</f>
         <v>149.80-(0.000+0.000)</v>
       </c>
-      <c r="C23" s="297"/>
-      <c r="D23" s="297"/>
-      <c r="E23" s="288"/>
-      <c r="G23" s="283">
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="299"/>
+      <c r="G23" s="294">
         <f>ROUND(100*I7*Input!B35*Input!B36/Input!F5,1)+ROUND(50*I7*I7*ABS(Input!B37-Input!B38)/Input!F5,1)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="283"/>
+      <c r="H23" s="294"/>
       <c r="I23" s="79" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
-      <c r="A24" s="295" t="s">
+    <row r="24" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A24" s="277" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="289" t="str">
+      <c r="B24" s="279" t="str">
         <f>TEXT(Input!F9,"0.000")&amp;"*"&amp;TEXT(I6,"0.000")</f>
         <v>0.000*-0.025</v>
       </c>
-      <c r="C24" s="290"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="280" t="str">
+      <c r="C24" s="280"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="278" t="str">
         <f>IF(E11&lt;0,"="&amp;TEXT(E11,"0.000"),"= "&amp;TEXT(E11,"0.000"))</f>
         <v>= 0.000</v>
       </c>
-      <c r="G24" s="279">
+      <c r="G24" s="293">
         <f>G21+G23</f>
         <v>12140.199999999999</v>
       </c>
-      <c r="H24" s="280"/>
+      <c r="H24" s="278"/>
       <c r="I24" s="77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="280"/>
-      <c r="B25" s="296" t="str">
+    <row r="25" spans="1:15">
+      <c r="A25" s="278"/>
+      <c r="B25" s="282" t="str">
         <f>TEXT(Input!F5,"0.00")&amp;"-("&amp;TEXT(ABS(Input!F7),"0.000")&amp;"+"&amp;TEXT(ABS(Input!F9),"0.000")&amp;")"</f>
         <v>149.80-(0.000+0.000)</v>
       </c>
-      <c r="C25" s="297"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="280"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
-      <c r="A26" s="295" t="s">
+      <c r="C25" s="283"/>
+      <c r="D25" s="283"/>
+      <c r="E25" s="278"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A26" s="277" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="289" t="str">
+      <c r="B26" s="279" t="str">
         <f>"100*"&amp;TEXT(I7,"0.000")&amp;"*"&amp;TEXT(Input!B35,"0.000")&amp;"*"&amp;TEXT(Input!B36,"0.000")</f>
         <v>100*-0.025*32.309*0.000</v>
       </c>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="280" t="str">
+      <c r="C26" s="280"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="278" t="str">
         <f>IF(ROUND(100*I7*Input!B35*Input!B36/Input!F5,1)&lt;0,"="&amp;TEXT(100*I7*Input!B35*Input!B36/Input!F5,"0.0"),"= "&amp;TEXT(100*I7*Input!B35*Input!B36/Input!F5,"0.0"))</f>
         <v>= 0.0</v>
       </c>
-      <c r="G26" s="277">
+      <c r="G26" s="291">
         <f>G24+ROUND(G24*(Input!F12-1.025)/1.025,1)</f>
         <v>12151.999999999998</v>
       </c>
-      <c r="H26" s="277"/>
+      <c r="H26" s="291"/>
       <c r="I26" s="79" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="280"/>
-      <c r="B27" s="296" t="str">
+    <row r="27" spans="1:15">
+      <c r="A27" s="278"/>
+      <c r="B27" s="282" t="str">
         <f>TEXT(Input!F5,"0.00")</f>
         <v>149.80</v>
       </c>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="280"/>
-      <c r="G27" s="279">
+      <c r="C27" s="283"/>
+      <c r="D27" s="283"/>
+      <c r="E27" s="278"/>
+      <c r="G27" s="293">
         <f>Input!F6</f>
         <v>6252.1</v>
       </c>
-      <c r="H27" s="280"/>
+      <c r="H27" s="278"/>
       <c r="I27" s="77" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
-      <c r="A28" s="295" t="s">
+    <row r="28" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A28" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="289" t="str">
+      <c r="B28" s="279" t="str">
         <f>"50*"&amp;TEXT(I7,"0.000")&amp;"*"&amp;TEXT(I7,"0.000")&amp;"*"&amp;TEXT(ABS(Input!B37-Input!B38),"0.000")</f>
         <v>50*-0.025*-0.025*0.000</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="298" t="str">
+      <c r="C28" s="280"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="284" t="str">
         <f>IF((50*I7*I7*ABS(Input!B37-Input!B38)/Input!F5)&lt;0,"="&amp;TEXT((50*I7*I7*ABS(Input!B37-Input!B38)/Input!F5),"0.0"),"= "&amp;TEXT((50*I7*I7*ABS(Input!B37-Input!B38)/Input!F5),"0.0"))</f>
         <v>= 0.0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
-      <c r="A29" s="280"/>
-      <c r="B29" s="296" t="str">
+    <row r="29" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A29" s="278"/>
+      <c r="B29" s="282" t="str">
         <f>TEXT(Input!F5,"0.00")</f>
         <v>149.80</v>
       </c>
-      <c r="C29" s="297"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="298"/>
-      <c r="G29" s="277">
+      <c r="C29" s="283"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="284"/>
+      <c r="G29" s="291">
         <f>G26-G27</f>
         <v>5899.8999999999978</v>
       </c>
-      <c r="H29" s="278"/>
+      <c r="H29" s="292"/>
       <c r="I29" s="79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
-      <c r="A30" s="295" t="s">
+    <row r="30" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A30" s="277" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="289" t="str">
+      <c r="B30" s="279" t="str">
         <f>TEXT(G24,"0.0")&amp;"*("&amp;TEXT(Input!F12,"0.0000")&amp;"-"&amp;TEXT(1.025,"0.0000")&amp;")"</f>
         <v>12140.2*(1.0260-1.0250)</v>
       </c>
-      <c r="C30" s="290"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="280" t="str">
+      <c r="C30" s="280"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="278" t="str">
         <f>"="&amp;TEXT(G24*(Input!F12-1.025)/1.025,"0.0")</f>
         <v>=11.8</v>
       </c>
-      <c r="G30" s="279">
+      <c r="G30" s="293">
         <f>B46</f>
         <v>5763.9</v>
       </c>
-      <c r="H30" s="280"/>
+      <c r="H30" s="278"/>
       <c r="I30" s="77" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="280"/>
-      <c r="B31" s="282" t="str">
+    <row r="31" spans="1:15">
+      <c r="A31" s="278"/>
+      <c r="B31" s="290" t="str">
         <f>TEXT(1.025,"0.0000")</f>
         <v>1.0250</v>
       </c>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="280"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1">
-      <c r="G32" s="277">
+      <c r="C31" s="290"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="278"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" thickBot="1">
+      <c r="G32" s="291">
         <f>Input!F10</f>
         <v>136</v>
       </c>
-      <c r="H32" s="278"/>
+      <c r="H32" s="292"/>
       <c r="I32" s="79" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1">
+    <row r="33" spans="1:9" ht="14.25" thickBot="1">
       <c r="A33" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="304">
+      <c r="B33" s="275">
         <f>Input!F12</f>
         <v>1.026</v>
       </c>
-      <c r="C33" s="305"/>
-      <c r="G33" s="279">
+      <c r="C33" s="276"/>
+      <c r="G33" s="293">
         <f>G29-G30-G32</f>
         <v>-1.8189894035458565E-12</v>
       </c>
-      <c r="H33" s="280"/>
+      <c r="H33" s="278"/>
       <c r="I33" s="77" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="98"/>
-      <c r="B34" s="306">
+      <c r="B34" s="281">
         <f>Input!B39</f>
         <v>254.5</v>
       </c>
-      <c r="C34" s="306"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+      <c r="C34" s="281"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" thickBot="1">
       <c r="A35" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="302"/>
-      <c r="C35" s="302"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
       <c r="G35" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="273">
+      <c r="H35" s="304">
         <f>Input!B9</f>
         <v>26700</v>
       </c>
-      <c r="I35" s="274"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+      <c r="I35" s="305"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" thickBot="1">
       <c r="A36" s="97"/>
-      <c r="B36" s="301">
+      <c r="B36" s="272">
         <f>Input!B40</f>
         <v>56.9</v>
       </c>
-      <c r="C36" s="301"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1">
+      <c r="C36" s="272"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" thickBot="1">
       <c r="A37" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="301"/>
-      <c r="C37" s="301"/>
+      <c r="B37" s="272"/>
+      <c r="C37" s="272"/>
       <c r="E37" s="100">
         <f>B34+B36+B38</f>
         <v>311.39999999999998</v>
@@ -7916,110 +7955,155 @@
       <c r="H37" s="175"/>
       <c r="I37" s="175"/>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1">
+    <row r="38" spans="1:9" ht="14.25" thickBot="1">
       <c r="A38" s="97"/>
-      <c r="B38" s="301">
+      <c r="B38" s="272">
         <f>Input!B41</f>
         <v>0</v>
       </c>
-      <c r="C38" s="301"/>
+      <c r="C38" s="272"/>
       <c r="H38" s="171"/>
       <c r="I38" s="171"/>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1">
       <c r="A39" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1">
+      <c r="B39" s="272"/>
+      <c r="C39" s="272"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" thickBot="1">
       <c r="A40" s="97"/>
-      <c r="B40" s="301">
+      <c r="B40" s="272">
         <f>Input!B42</f>
         <v>80</v>
       </c>
-      <c r="C40" s="301"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1">
+      <c r="C40" s="272"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" thickBot="1">
       <c r="A41" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="301"/>
-      <c r="C41" s="301"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1">
+      <c r="B41" s="272"/>
+      <c r="C41" s="272"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" thickBot="1">
       <c r="A42" s="97"/>
-      <c r="B42" s="301">
+      <c r="B42" s="272">
         <f>Input!B43</f>
         <v>5372.5</v>
       </c>
-      <c r="C42" s="301"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1">
+      <c r="C42" s="272"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" thickBot="1">
       <c r="A43" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="301"/>
-      <c r="C43" s="301"/>
+      <c r="B43" s="272"/>
+      <c r="C43" s="272"/>
       <c r="G43" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="272" t="str">
+      <c r="H43" s="303" t="str">
         <f>Input!F37&amp;"-"&amp;Input!F38</f>
         <v>00:20-01:20</v>
       </c>
-      <c r="I43" s="272"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1">
+      <c r="I43" s="303"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" thickBot="1">
       <c r="A44" s="97"/>
-      <c r="B44" s="301">
+      <c r="B44" s="272">
         <f>Input!B44</f>
         <v>0</v>
       </c>
-      <c r="C44" s="301"/>
-      <c r="H44" s="271"/>
-      <c r="I44" s="271"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1">
+      <c r="C44" s="272"/>
+      <c r="H44" s="302"/>
+      <c r="I44" s="302"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" thickBot="1">
       <c r="A45" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="301"/>
-      <c r="C45" s="301"/>
+      <c r="B45" s="272"/>
+      <c r="C45" s="272"/>
       <c r="G45" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H45" s="270"/>
-      <c r="I45" s="270"/>
+      <c r="H45" s="301"/>
+      <c r="I45" s="301"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="97"/>
-      <c r="B46" s="302">
+      <c r="B46" s="273">
         <f>SUM(B34:C45)</f>
         <v>5763.9</v>
       </c>
-      <c r="C46" s="302"/>
+      <c r="C46" s="273"/>
       <c r="E46" s="54"/>
       <c r="G46" s="56"/>
-      <c r="H46" s="269"/>
-      <c r="I46" s="269"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1">
+      <c r="H46" s="300"/>
+      <c r="I46" s="300"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" thickBot="1">
       <c r="A47" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="303"/>
-      <c r="C47" s="303"/>
+      <c r="B47" s="274"/>
+      <c r="C47" s="274"/>
       <c r="G47" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="270"/>
-      <c r="I47" s="270"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="301"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hGbbkm3vcRLDwTLVodXwpAseuQs/vliZKqP3oNY5uzZ4sdHZgubXIsJjtQCg1sS7KmvYWX0XF76gHQSw10cXSA==" saltValue="9heHbjUkvddFSxhowMhOTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="62">
+    <mergeCell ref="H46:I47"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="B46:C47"/>
@@ -8036,52 +8120,6 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="H46:I47"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8094,7 +8132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F58"/>
   <sheetViews>
@@ -8102,42 +8140,42 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
+    <col min="3" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="310" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="311" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="299"/>
+      <c r="F1" s="270"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
+      <c r="A3" s="314"/>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
       <c r="E3" s="33"/>
       <c r="F3" s="110">
         <f>calculate!I4</f>
@@ -8600,10 +8638,10 @@
       <c r="F29" s="182"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1">
-      <c r="A30" s="308" t="s">
+      <c r="A30" s="309" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="309"/>
+      <c r="B30" s="310"/>
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="107">
@@ -8657,10 +8695,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="185" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="308" t="s">
+      <c r="A33" s="309" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="309"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
       <c r="E33" s="107">
@@ -8735,10 +8773,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="A37" s="308" t="s">
+      <c r="A37" s="309" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="309"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="37"/>
       <c r="D37" s="38"/>
       <c r="E37" s="107">
@@ -8765,12 +8803,12 @@
       <c r="F39" s="81"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="A40" s="307"/>
-      <c r="B40" s="307"/>
-      <c r="C40" s="307"/>
-      <c r="D40" s="307"/>
-      <c r="E40" s="307"/>
-      <c r="F40" s="307"/>
+      <c r="A40" s="308"/>
+      <c r="B40" s="308"/>
+      <c r="C40" s="308"/>
+      <c r="D40" s="308"/>
+      <c r="E40" s="308"/>
+      <c r="F40" s="308"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1"/>
     <row r="42" spans="1:6" ht="18" customHeight="1"/>
@@ -8805,7 +8843,6 @@
     <row r="57" spans="1:6" ht="18" customHeight="1"/>
     <row r="58" spans="1:6" ht="20.25" customHeight="1"/>
   </sheetData>
-  <sheetProtection password="C9BD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A30:B30"/>
@@ -8824,24 +8861,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="21"/>
-    <col min="5" max="5" width="10.33203125" style="21" customWidth="1"/>
-    <col min="6" max="7" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="21" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="21" customWidth="1"/>
     <col min="10" max="12" width="9" style="21"/>
-    <col min="13" max="13" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="21"/>
-    <col min="15" max="15" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -8849,11 +8886,11 @@
       <c r="B1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="291" t="s">
+      <c r="G1" s="285" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="21" t="s">
@@ -8864,13 +8901,13 @@
       <c r="B4" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="281" t="str">
+      <c r="C4" s="289" t="str">
         <f>Input!B5</f>
         <v>华舟1</v>
       </c>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
       <c r="H4" s="80" t="s">
         <v>157</v>
       </c>
@@ -8905,13 +8942,13 @@
         <f>ROUND(D11-D7,3)</f>
         <v>0.06</v>
       </c>
-      <c r="K6" s="291"/>
-      <c r="L6" s="291"/>
-      <c r="N6" s="291"/>
-      <c r="O6" s="291"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
+      <c r="N6" s="285"/>
+      <c r="O6" s="285"/>
       <c r="P6" s="62"/>
     </row>
-    <row r="7" spans="1:17" ht="16.8">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="63" t="s">
         <v>74</v>
       </c>
@@ -8935,10 +8972,10 @@
         <f>ROUND(F11-F7,3)</f>
         <v>0.06</v>
       </c>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="N7" s="291"/>
-      <c r="O7" s="291"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="285"/>
       <c r="P7" s="62"/>
     </row>
     <row r="8" spans="1:17">
@@ -8951,20 +8988,20 @@
       </c>
       <c r="D8" s="103"/>
       <c r="F8" s="59"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="N8" s="291"/>
-      <c r="O8" s="291"/>
+      <c r="K8" s="288"/>
+      <c r="L8" s="288"/>
+      <c r="N8" s="285"/>
+      <c r="O8" s="285"/>
     </row>
     <row r="9" spans="1:17">
       <c r="D9" s="168"/>
       <c r="F9" s="80"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="291"/>
-      <c r="N9" s="291"/>
-      <c r="O9" s="291"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.6">
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.25">
       <c r="A10" s="61" t="s">
         <v>72</v>
       </c>
@@ -8982,17 +9019,17 @@
       <c r="G10" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="293">
+      <c r="H10" s="287">
         <f>SUM(F15*6+F11+F7)/8</f>
         <v>10.362499999999999</v>
       </c>
-      <c r="I10" s="293"/>
-      <c r="K10" s="291"/>
-      <c r="L10" s="291"/>
-      <c r="M10" s="291"/>
-      <c r="N10" s="291"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.8">
+      <c r="I10" s="287"/>
+      <c r="K10" s="285"/>
+      <c r="L10" s="285"/>
+      <c r="M10" s="285"/>
+      <c r="N10" s="285"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.25">
       <c r="A11" s="63" t="s">
         <v>76</v>
       </c>
@@ -9009,7 +9046,7 @@
         <v>10.34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.6">
+    <row r="12" spans="1:17" ht="14.25">
       <c r="A12" s="61" t="s">
         <v>73</v>
       </c>
@@ -9022,11 +9059,11 @@
       <c r="G12" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="292">
+      <c r="H12" s="286">
         <f>ROUND(H10,3)-Input!F11</f>
         <v>10.363</v>
       </c>
-      <c r="I12" s="292"/>
+      <c r="I12" s="286"/>
     </row>
     <row r="13" spans="1:17">
       <c r="D13" s="168"/>
@@ -9054,7 +9091,7 @@
       <c r="M14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6">
+    <row r="15" spans="1:17">
       <c r="A15" s="65" t="s">
         <v>75</v>
       </c>
@@ -9074,11 +9111,11 @@
       <c r="G15" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="284">
+      <c r="H15" s="295">
         <f>Input1!B33</f>
         <v>10.318</v>
       </c>
-      <c r="I15" s="284"/>
+      <c r="I15" s="295"/>
       <c r="K15" s="49"/>
       <c r="M15" s="50"/>
       <c r="O15" s="50"/>
@@ -9093,305 +9130,305 @@
         <v>10.4</v>
       </c>
       <c r="D16" s="53"/>
-      <c r="H16" s="285"/>
-      <c r="I16" s="285"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="296"/>
       <c r="K16" s="50"/>
       <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="H17" s="286">
+      <c r="H17" s="297">
         <f>Input1!B34</f>
         <v>33434.400000000001</v>
       </c>
-      <c r="I17" s="287"/>
+      <c r="I17" s="298"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
+      <c r="H18" s="298"/>
+      <c r="I18" s="298"/>
     </row>
     <row r="19" spans="1:9">
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
-      <c r="A20" s="295" t="s">
+    <row r="20" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A20" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="289" t="str">
+      <c r="B20" s="279" t="str">
         <f>TEXT(Input1!F7,"0.000")&amp;"*"&amp;TEXT(I6,"0.000")</f>
         <v>0.000*0.060</v>
       </c>
-      <c r="C20" s="290"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="280" t="str">
+      <c r="C20" s="280"/>
+      <c r="D20" s="280"/>
+      <c r="E20" s="278" t="str">
         <f>IF(E7&lt;0,"="&amp;TEXT(E7,"0.000"),"= "&amp;TEXT(E7,"0.000"))</f>
         <v>= 0.000</v>
       </c>
-      <c r="G20" s="275" t="str">
+      <c r="G20" s="306" t="str">
         <f>ROUND(100*(H12-H15),1)&amp;"*"&amp;TEXT(Input1!B35,"0.000")&amp;"="&amp;ROUND(100*(H12-H15)*Input1!B35,1)</f>
         <v>4.5*36.347=163.6</v>
       </c>
-      <c r="H20" s="276"/>
+      <c r="H20" s="307"/>
       <c r="I20" s="79" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="280"/>
-      <c r="B21" s="296" t="str">
+      <c r="A21" s="278"/>
+      <c r="B21" s="282" t="str">
         <f>TEXT(Input1!F5,"0.00")&amp;"-("&amp;TEXT(ABS(Input1!F7),"0.000")&amp;"+"&amp;TEXT(ABS(Input1!F9),"0.000")&amp;")"</f>
         <v>149.80-(0.000+0.000)</v>
       </c>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="280"/>
-      <c r="G21" s="279">
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="278"/>
+      <c r="G21" s="293">
         <f>Input1!B34+ROUND(100*(H12-H15)*Input1!B35,1)</f>
         <v>33598</v>
       </c>
-      <c r="H21" s="279"/>
+      <c r="H21" s="293"/>
       <c r="I21" s="168" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
-      <c r="A22" s="295" t="s">
+    <row r="22" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A22" s="277" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="289" t="str">
+      <c r="B22" s="279" t="str">
         <f>TEXT(Input1!F8,"0.000")&amp;"*"&amp;TEXT(I6,"0.000")</f>
         <v>0.000*0.060</v>
       </c>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="288" t="str">
+      <c r="C22" s="280"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="299" t="str">
         <f>IF(E15&lt;0,"="&amp;TEXT(E15,"0.000"),"= "&amp;TEXT(E15,"0.000"))</f>
         <v>= 0.000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="280"/>
-      <c r="B23" s="296" t="str">
+    <row r="23" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A23" s="278"/>
+      <c r="B23" s="282" t="str">
         <f>TEXT(Input1!F5,"0.00")&amp;"-("&amp;TEXT(ABS(Input1!F7),"0.000")&amp;"+"&amp;TEXT(ABS(Input1!F9),"0.000")&amp;")"</f>
         <v>149.80-(0.000+0.000)</v>
       </c>
-      <c r="C23" s="297"/>
-      <c r="D23" s="297"/>
-      <c r="E23" s="288"/>
-      <c r="G23" s="283">
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="299"/>
+      <c r="G23" s="294">
         <f>ROUND(100*I7*Input1!B35*Input1!B36/Input1!F5,1)+ROUND(50*I7*I7*ABS(Input1!B37-Input1!B38)/Input1!F5,1)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="H23" s="283"/>
+      <c r="H23" s="294"/>
       <c r="I23" s="79" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
-      <c r="A24" s="295" t="s">
+    <row r="24" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A24" s="277" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="289" t="str">
+      <c r="B24" s="279" t="str">
         <f>TEXT(Input1!F9,"0.000")&amp;"*"&amp;TEXT(I6,"0.000")</f>
         <v>0.000*0.060</v>
       </c>
-      <c r="C24" s="290"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="280" t="str">
+      <c r="C24" s="280"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="278" t="str">
         <f>IF(E11&lt;0,"="&amp;TEXT(E11,"0.000"),"= "&amp;TEXT(E11,"0.000"))</f>
         <v>= 0.000</v>
       </c>
-      <c r="G24" s="279">
+      <c r="G24" s="293">
         <f>G21+G23</f>
         <v>33602.6</v>
       </c>
-      <c r="H24" s="280"/>
+      <c r="H24" s="278"/>
       <c r="I24" s="168" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="280"/>
-      <c r="B25" s="296" t="str">
+      <c r="A25" s="278"/>
+      <c r="B25" s="282" t="str">
         <f>TEXT(Input1!F5,"0.00")&amp;"-("&amp;TEXT(ABS(Input1!F7),"0.000")&amp;"+"&amp;TEXT(ABS(Input1!F9),"0.000")&amp;")"</f>
         <v>149.80-(0.000+0.000)</v>
       </c>
-      <c r="C25" s="297"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="280"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
-      <c r="A26" s="295" t="s">
+      <c r="C25" s="283"/>
+      <c r="D25" s="283"/>
+      <c r="E25" s="278"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A26" s="277" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="289" t="str">
+      <c r="B26" s="279" t="str">
         <f>"100*"&amp;TEXT(I7,"0.000")&amp;"*"&amp;TEXT(Input1!B35,"0.000")&amp;"*"&amp;TEXT(Input1!B36,"0.000")</f>
         <v>100*0.060*36.347*3.141</v>
       </c>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="280" t="str">
+      <c r="C26" s="280"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="278" t="str">
         <f>IF(ROUND(100*I7*Input1!B35*Input1!B36/Input1!F5,1)&lt;0,"="&amp;TEXT(100*I7*Input1!B35*Input1!B36/Input1!F5,"0.0"),"= "&amp;TEXT(100*I7*Input1!B35*Input1!B36/Input1!F5,"0.0"))</f>
         <v>= 4.6</v>
       </c>
-      <c r="G26" s="277">
+      <c r="G26" s="291">
         <f>G24+ROUND(G24*(Input1!F12-1.025)/1.025,1)</f>
         <v>33635.4</v>
       </c>
-      <c r="H26" s="277"/>
+      <c r="H26" s="291"/>
       <c r="I26" s="79" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="280"/>
-      <c r="B27" s="296" t="str">
+      <c r="A27" s="278"/>
+      <c r="B27" s="282" t="str">
         <f>TEXT(Input1!F5,"0.00")</f>
         <v>149.80</v>
       </c>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="280"/>
-      <c r="G27" s="279">
+      <c r="C27" s="283"/>
+      <c r="D27" s="283"/>
+      <c r="E27" s="278"/>
+      <c r="G27" s="293">
         <f>Input1!F6</f>
         <v>6252.1</v>
       </c>
-      <c r="H27" s="280"/>
+      <c r="H27" s="278"/>
       <c r="I27" s="168" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
-      <c r="A28" s="295" t="s">
+    <row r="28" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A28" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="289" t="str">
+      <c r="B28" s="279" t="str">
         <f>"50*"&amp;TEXT(I7,"0.000")&amp;"*"&amp;TEXT(I7,"0.000")&amp;"*"&amp;TEXT(ABS(Input1!B37-Input1!B38),"0.000")</f>
         <v>50*0.060*0.060*36.347</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="298" t="str">
+      <c r="C28" s="280"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="284" t="str">
         <f>IF((50*I7*I7*ABS(Input1!B37-Input1!B38)/Input1!F5)&lt;0,"="&amp;TEXT((50*I7*I7*ABS(Input1!B37-Input1!B38)/Input1!F5),"0.0"),"= "&amp;TEXT((50*I7*I7*ABS(Input1!B37-Input1!B38)/Input1!F5),"0.0"))</f>
         <v>= 0.0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
-      <c r="A29" s="280"/>
-      <c r="B29" s="296" t="str">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A29" s="278"/>
+      <c r="B29" s="282" t="str">
         <f>TEXT(Input!F5,"0.00")</f>
         <v>149.80</v>
       </c>
-      <c r="C29" s="297"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="298"/>
-      <c r="G29" s="277">
+      <c r="C29" s="283"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="284"/>
+      <c r="G29" s="291">
         <f>G26-G27</f>
         <v>27383.300000000003</v>
       </c>
-      <c r="H29" s="278"/>
+      <c r="H29" s="292"/>
       <c r="I29" s="79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
-      <c r="A30" s="295" t="s">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A30" s="277" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="289" t="str">
+      <c r="B30" s="279" t="str">
         <f>TEXT(G24,"0.0")&amp;"*("&amp;TEXT(Input1!F12,"0.0000")&amp;"-"&amp;TEXT(1.025,"0.0000")&amp;")"</f>
         <v>33602.6*(1.0260-1.0250)</v>
       </c>
-      <c r="C30" s="290"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="280" t="str">
+      <c r="C30" s="280"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="278" t="str">
         <f>"="&amp;TEXT(G24*(Input!F12-1.025)/1.025,"0.0")</f>
         <v>=32.8</v>
       </c>
-      <c r="G30" s="279">
+      <c r="G30" s="293">
         <f>B46</f>
         <v>567.29999999999995</v>
       </c>
-      <c r="H30" s="280"/>
+      <c r="H30" s="278"/>
       <c r="I30" s="168" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="280"/>
-      <c r="B31" s="282" t="str">
+      <c r="A31" s="278"/>
+      <c r="B31" s="290" t="str">
         <f>TEXT(1.025,"0.0000")</f>
         <v>1.0250</v>
       </c>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="280"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1">
-      <c r="G32" s="277">
+      <c r="C31" s="290"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="278"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" thickBot="1">
+      <c r="G32" s="291">
         <f>calculate!G32</f>
         <v>136</v>
       </c>
-      <c r="H32" s="278"/>
+      <c r="H32" s="292"/>
       <c r="I32" s="79" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1">
+    <row r="33" spans="1:9" ht="14.25" thickBot="1">
       <c r="A33" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="304">
+      <c r="B33" s="275">
         <f>Input1!F12</f>
         <v>1.026</v>
       </c>
-      <c r="C33" s="305"/>
-      <c r="G33" s="279">
+      <c r="C33" s="276"/>
+      <c r="G33" s="293">
         <f>G29-G30-G32</f>
         <v>26680.000000000004</v>
       </c>
-      <c r="H33" s="280"/>
+      <c r="H33" s="278"/>
       <c r="I33" s="168" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="98"/>
-      <c r="B34" s="306">
+      <c r="B34" s="281">
         <f>Input1!B39</f>
         <v>254.5</v>
       </c>
-      <c r="C34" s="306"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+      <c r="C34" s="281"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" thickBot="1">
       <c r="A35" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="302"/>
-      <c r="C35" s="302"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
       <c r="G35" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="273">
+      <c r="H35" s="304">
         <f>Input!B9</f>
         <v>26700</v>
       </c>
-      <c r="I35" s="274"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1">
+      <c r="I35" s="305"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" thickBot="1">
       <c r="A36" s="166"/>
-      <c r="B36" s="301">
+      <c r="B36" s="272">
         <f>Input1!B40</f>
         <v>55.7</v>
       </c>
-      <c r="C36" s="301"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1">
+      <c r="C36" s="272"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" thickBot="1">
       <c r="A37" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="301"/>
-      <c r="C37" s="301"/>
+      <c r="B37" s="272"/>
+      <c r="C37" s="272"/>
       <c r="E37" s="100">
         <f>B34+B36+B38</f>
         <v>310.2</v>
@@ -9399,122 +9436,169 @@
       <c r="G37" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H37" s="315">
+      <c r="H37" s="316">
         <f>ABS((calculate!G26-calculate!B46)-(calculate1!G26-calculate1!B46))-H35</f>
         <v>-20</v>
       </c>
-      <c r="I37" s="315"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1">
+      <c r="I37" s="316"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" thickBot="1">
       <c r="A38" s="166"/>
-      <c r="B38" s="301">
+      <c r="B38" s="272">
         <f>Input1!B41</f>
         <v>0</v>
       </c>
-      <c r="C38" s="301"/>
+      <c r="C38" s="272"/>
       <c r="G38" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H38" s="316" t="str">
+      <c r="H38" s="317" t="str">
         <f>ROUND(H37/H35*1000,1)&amp;"‰"</f>
         <v>-0.7‰</v>
       </c>
-      <c r="I38" s="316"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1">
+      <c r="I38" s="317"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" thickBot="1">
       <c r="A39" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1">
+      <c r="B39" s="272"/>
+      <c r="C39" s="272"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" thickBot="1">
       <c r="A40" s="166"/>
-      <c r="B40" s="301">
+      <c r="B40" s="272">
         <f>Input1!B42</f>
         <v>76.400000000000006</v>
       </c>
-      <c r="C40" s="301"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1">
+      <c r="C40" s="272"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" thickBot="1">
       <c r="A41" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="301"/>
-      <c r="C41" s="301"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1">
+      <c r="B41" s="272"/>
+      <c r="C41" s="272"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" thickBot="1">
       <c r="A42" s="166"/>
-      <c r="B42" s="301">
+      <c r="B42" s="272">
         <f>Input1!B43</f>
         <v>180.7</v>
       </c>
-      <c r="C42" s="301"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1">
+      <c r="C42" s="272"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" thickBot="1">
       <c r="A43" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="301"/>
-      <c r="C43" s="301"/>
+      <c r="B43" s="272"/>
+      <c r="C43" s="272"/>
       <c r="G43" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="272" t="str">
+      <c r="H43" s="303" t="str">
         <f>Input1!F37&amp;"-"&amp;Input1!F38</f>
         <v>11:30-12:20</v>
       </c>
-      <c r="I43" s="272"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1">
+      <c r="I43" s="303"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" thickBot="1">
       <c r="A44" s="166"/>
-      <c r="B44" s="301">
+      <c r="B44" s="272">
         <f>Input1!B44</f>
         <v>0</v>
       </c>
-      <c r="C44" s="301"/>
-      <c r="H44" s="271"/>
-      <c r="I44" s="271"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1">
+      <c r="C44" s="272"/>
+      <c r="H44" s="302"/>
+      <c r="I44" s="302"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" thickBot="1">
       <c r="A45" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="301"/>
-      <c r="C45" s="301"/>
+      <c r="B45" s="272"/>
+      <c r="C45" s="272"/>
       <c r="G45" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H45" s="270"/>
-      <c r="I45" s="270"/>
+      <c r="H45" s="301"/>
+      <c r="I45" s="301"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="166"/>
-      <c r="B46" s="302">
+      <c r="B46" s="273">
         <f>SUM(B34:C45)</f>
         <v>567.29999999999995</v>
       </c>
-      <c r="C46" s="302"/>
+      <c r="C46" s="273"/>
       <c r="E46" s="165"/>
       <c r="G46" s="56"/>
-      <c r="H46" s="269"/>
-      <c r="I46" s="269"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1">
+      <c r="H46" s="300"/>
+      <c r="I46" s="300"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" thickBot="1">
       <c r="A47" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="303"/>
-      <c r="C47" s="303"/>
+      <c r="B47" s="274"/>
+      <c r="C47" s="274"/>
       <c r="G47" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="270"/>
-      <c r="I47" s="270"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="301"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8fdzKo/ADJrJMX5vYhSJ6E2PfsTyzaPGWQyEQCjNfvzAnIU9P4PgTTPwXxyzE4KoYoZeW3e54sd/g3OgaKV3jA==" saltValue="A6303NEK+EGUeBN1hDq7sw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="64">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="H37:I37"/>
@@ -9531,54 +9615,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9591,50 +9627,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="173" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="173" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="173" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="173" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="173" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="173" customWidth="1"/>
     <col min="7" max="16384" width="9" style="173"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="310" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="311" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="299"/>
+      <c r="F1" s="270"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
+      <c r="A3" s="314"/>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
       <c r="E3" s="33"/>
       <c r="F3" s="110">
         <f>calculate1!I4</f>
@@ -10089,10 +10125,10 @@
       <c r="F28" s="182"/>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1">
-      <c r="A29" s="308" t="s">
+      <c r="A29" s="309" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="309"/>
+      <c r="B29" s="310"/>
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
       <c r="E29" s="107">
@@ -10146,10 +10182,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1">
-      <c r="A32" s="308" t="s">
+      <c r="A32" s="309" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="309"/>
+      <c r="B32" s="310"/>
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="107">
@@ -10224,10 +10260,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="A36" s="308" t="s">
+      <c r="A36" s="309" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="309"/>
+      <c r="B36" s="310"/>
       <c r="C36" s="37"/>
       <c r="D36" s="38"/>
       <c r="E36" s="107">
@@ -10254,12 +10290,12 @@
       <c r="F38" s="81"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="A39" s="307"/>
-      <c r="B39" s="307"/>
-      <c r="C39" s="307"/>
-      <c r="D39" s="307"/>
-      <c r="E39" s="307"/>
-      <c r="F39" s="307"/>
+      <c r="A39" s="308"/>
+      <c r="B39" s="308"/>
+      <c r="C39" s="308"/>
+      <c r="D39" s="308"/>
+      <c r="E39" s="308"/>
+      <c r="F39" s="308"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1"/>
     <row r="41" spans="1:6" ht="18" customHeight="1"/>
@@ -10282,7 +10318,6 @@
     <row r="58" ht="18" customHeight="1"/>
     <row r="59" ht="20.25" customHeight="1"/>
   </sheetData>
-  <sheetProtection password="C9BD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A1:D1"/>
@@ -10301,16 +10336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10354,14 +10389,14 @@
       <c r="A4" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="360"/>
-      <c r="C4" s="360"/>
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
       <c r="D4" s="123"/>
       <c r="E4" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="360"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
       <c r="H4" s="123"/>
       <c r="I4" s="128"/>
     </row>
@@ -10369,18 +10404,18 @@
       <c r="A5" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="358" t="s">
+      <c r="B5" s="326" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="359"/>
+      <c r="C5" s="327"/>
       <c r="D5" s="98"/>
       <c r="E5" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="361">
+      <c r="F5" s="333">
         <v>149.80000000000001</v>
       </c>
-      <c r="G5" s="362"/>
+      <c r="G5" s="334"/>
       <c r="H5" s="98" t="s">
         <v>138</v>
       </c>
@@ -10390,18 +10425,18 @@
       <c r="A6" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="358">
+      <c r="B6" s="326">
         <v>2006</v>
       </c>
-      <c r="C6" s="359"/>
+      <c r="C6" s="327"/>
       <c r="D6" s="98"/>
       <c r="E6" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="361">
+      <c r="F6" s="333">
         <v>6252.1</v>
       </c>
-      <c r="G6" s="362"/>
+      <c r="G6" s="334"/>
       <c r="H6" s="98" t="s">
         <v>139</v>
       </c>
@@ -10411,18 +10446,18 @@
       <c r="A7" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="358" t="s">
+      <c r="B7" s="326" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="359"/>
+      <c r="C7" s="327"/>
       <c r="D7" s="98"/>
       <c r="E7" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="363">
+      <c r="F7" s="318">
         <v>0</v>
       </c>
-      <c r="G7" s="364"/>
+      <c r="G7" s="319"/>
       <c r="H7" s="98" t="s">
         <v>138</v>
       </c>
@@ -10432,18 +10467,18 @@
       <c r="A8" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="358" t="s">
+      <c r="B8" s="326" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="359"/>
+      <c r="C8" s="327"/>
       <c r="D8" s="98"/>
       <c r="E8" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="363">
+      <c r="F8" s="318">
         <v>0</v>
       </c>
-      <c r="G8" s="364"/>
+      <c r="G8" s="319"/>
       <c r="H8" s="98" t="s">
         <v>138</v>
       </c>
@@ -10453,18 +10488,18 @@
       <c r="A9" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="369">
+      <c r="B9" s="328">
         <v>26700</v>
       </c>
-      <c r="C9" s="370"/>
+      <c r="C9" s="329"/>
       <c r="D9" s="98"/>
       <c r="E9" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="363">
+      <c r="F9" s="318">
         <v>0</v>
       </c>
-      <c r="G9" s="364"/>
+      <c r="G9" s="319"/>
       <c r="H9" s="98" t="s">
         <v>138</v>
       </c>
@@ -10474,18 +10509,18 @@
       <c r="A10" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="369">
+      <c r="B10" s="328">
         <v>27100</v>
       </c>
-      <c r="C10" s="370"/>
+      <c r="C10" s="329"/>
       <c r="D10" s="98"/>
       <c r="E10" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="371">
+      <c r="F10" s="330">
         <v>136</v>
       </c>
-      <c r="G10" s="372"/>
+      <c r="G10" s="331"/>
       <c r="H10" s="98" t="s">
         <v>167</v>
       </c>
@@ -10495,39 +10530,39 @@
       <c r="A11" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="350" t="s">
+      <c r="B11" s="324" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="351"/>
+      <c r="C11" s="325"/>
       <c r="D11" s="98"/>
       <c r="E11" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="365">
+      <c r="F11" s="320">
         <v>0</v>
       </c>
-      <c r="G11" s="366"/>
+      <c r="G11" s="321"/>
       <c r="H11" s="98" t="s">
         <v>138</v>
       </c>
       <c r="I11" s="130"/>
     </row>
-    <row r="12" spans="1:9" ht="16.8">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="350" t="s">
+      <c r="B12" s="324" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="351"/>
+      <c r="C12" s="325"/>
       <c r="D12" s="98"/>
       <c r="E12" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="367">
+      <c r="F12" s="322">
         <v>1.026</v>
       </c>
-      <c r="G12" s="368"/>
+      <c r="G12" s="323"/>
       <c r="H12" s="98" t="s">
         <v>137</v>
       </c>
@@ -10537,37 +10572,37 @@
       <c r="A13" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="350" t="s">
+      <c r="B13" s="324" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="351"/>
+      <c r="C13" s="325"/>
       <c r="D13" s="98"/>
       <c r="E13" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="354" t="s">
+      <c r="F13" s="337" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="355"/>
-      <c r="H13" s="356"/>
-      <c r="I13" s="357"/>
+      <c r="G13" s="338"/>
+      <c r="H13" s="339"/>
+      <c r="I13" s="340"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="352">
+      <c r="B14" s="335">
         <v>39714</v>
       </c>
-      <c r="C14" s="353"/>
+      <c r="C14" s="336"/>
       <c r="D14" s="124"/>
       <c r="E14" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="354"/>
-      <c r="G14" s="355"/>
-      <c r="H14" s="356"/>
-      <c r="I14" s="357"/>
+      <c r="F14" s="337"/>
+      <c r="G14" s="338"/>
+      <c r="H14" s="339"/>
+      <c r="I14" s="340"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="118"/>
@@ -10636,12 +10671,12 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="347">
+      <c r="A19" s="341">
         <v>4.0599999999999996</v>
       </c>
       <c r="B19" s="144"/>
       <c r="C19" s="144"/>
-      <c r="D19" s="348">
+      <c r="D19" s="342">
         <v>4.07</v>
       </c>
       <c r="E19" s="141"/>
@@ -10651,10 +10686,10 @@
       <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="347"/>
+      <c r="A20" s="341"/>
       <c r="B20" s="144"/>
       <c r="C20" s="144"/>
-      <c r="D20" s="348"/>
+      <c r="D20" s="342"/>
       <c r="E20" s="145" t="s">
         <v>41</v>
       </c>
@@ -10708,12 +10743,12 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="347">
+      <c r="A23" s="341">
         <v>4.03</v>
       </c>
       <c r="B23" s="144"/>
       <c r="C23" s="144"/>
-      <c r="D23" s="349">
+      <c r="D23" s="343">
         <v>3.98</v>
       </c>
       <c r="E23" s="141"/>
@@ -10723,10 +10758,10 @@
       <c r="I23" s="143"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="347"/>
+      <c r="A24" s="341"/>
       <c r="B24" s="144"/>
       <c r="C24" s="144"/>
-      <c r="D24" s="349"/>
+      <c r="D24" s="343"/>
       <c r="E24" s="145" t="s">
         <v>43</v>
       </c>
@@ -10790,12 +10825,12 @@
       <c r="I27" s="143"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="347">
+      <c r="A28" s="341">
         <v>4.04</v>
       </c>
       <c r="B28" s="144"/>
       <c r="C28" s="144"/>
-      <c r="D28" s="349">
+      <c r="D28" s="343">
         <v>4.04</v>
       </c>
       <c r="E28" s="145" t="s">
@@ -10814,10 +10849,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="347"/>
+      <c r="A29" s="341"/>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
-      <c r="D29" s="349"/>
+      <c r="D29" s="343"/>
       <c r="E29" s="141"/>
       <c r="F29" s="142"/>
       <c r="G29" s="142"/>
@@ -10838,12 +10873,12 @@
         <v>43</v>
       </c>
       <c r="F30" s="151"/>
-      <c r="G30" s="334" t="str">
+      <c r="G30" s="344" t="str">
         <f>IF(ABS(H26)&lt;ABS(H24),"拱垂异常！请复核船舶吃水！！","合理")</f>
         <v>合理</v>
       </c>
-      <c r="H30" s="335"/>
-      <c r="I30" s="336"/>
+      <c r="H30" s="345"/>
+      <c r="I30" s="346"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="118"/>
@@ -10875,131 +10910,131 @@
       <c r="A33" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="321">
+      <c r="B33" s="347">
         <v>4.0179999999999998</v>
       </c>
-      <c r="C33" s="322"/>
+      <c r="C33" s="348"/>
       <c r="D33" s="98"/>
       <c r="E33" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="339" t="s">
+      <c r="F33" s="351" t="s">
         <v>254</v>
       </c>
-      <c r="G33" s="340"/>
-      <c r="H33" s="341"/>
-      <c r="I33" s="342"/>
+      <c r="G33" s="352"/>
+      <c r="H33" s="353"/>
+      <c r="I33" s="354"/>
     </row>
     <row r="34" spans="1:10" s="58" customFormat="1">
       <c r="A34" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="323">
+      <c r="B34" s="363">
         <v>12143.4</v>
       </c>
-      <c r="C34" s="324"/>
+      <c r="C34" s="364"/>
       <c r="D34" s="98"/>
       <c r="E34" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="339" t="s">
+      <c r="F34" s="351" t="s">
         <v>261</v>
       </c>
-      <c r="G34" s="340"/>
-      <c r="H34" s="341"/>
-      <c r="I34" s="342"/>
+      <c r="G34" s="352"/>
+      <c r="H34" s="353"/>
+      <c r="I34" s="354"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="321">
+      <c r="B35" s="347">
         <v>32.308999999999997</v>
       </c>
-      <c r="C35" s="322"/>
+      <c r="C35" s="348"/>
       <c r="D35" s="98"/>
       <c r="E35" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="339" t="s">
+      <c r="F35" s="351" t="s">
         <v>252</v>
       </c>
-      <c r="G35" s="341"/>
-      <c r="H35" s="341"/>
-      <c r="I35" s="342"/>
+      <c r="G35" s="353"/>
+      <c r="H35" s="353"/>
+      <c r="I35" s="354"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="337">
+      <c r="B36" s="349">
         <v>0</v>
       </c>
-      <c r="C36" s="338"/>
+      <c r="C36" s="350"/>
       <c r="D36" s="98"/>
       <c r="E36" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="343">
+      <c r="F36" s="355">
         <v>43900</v>
       </c>
-      <c r="G36" s="344"/>
-      <c r="H36" s="341"/>
-      <c r="I36" s="342"/>
+      <c r="G36" s="356"/>
+      <c r="H36" s="353"/>
+      <c r="I36" s="354"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="337">
+      <c r="B37" s="349">
         <v>0</v>
       </c>
-      <c r="C37" s="338"/>
+      <c r="C37" s="350"/>
       <c r="D37" s="98"/>
       <c r="E37" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="F37" s="345" t="s">
+      <c r="F37" s="357" t="s">
         <v>240</v>
       </c>
-      <c r="G37" s="346"/>
-      <c r="H37" s="341"/>
-      <c r="I37" s="342"/>
+      <c r="G37" s="358"/>
+      <c r="H37" s="353"/>
+      <c r="I37" s="354"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="337">
+      <c r="B38" s="349">
         <v>0</v>
       </c>
-      <c r="C38" s="338"/>
+      <c r="C38" s="350"/>
       <c r="D38" s="98"/>
       <c r="E38" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="345" t="s">
+      <c r="F38" s="357" t="s">
         <v>253</v>
       </c>
-      <c r="G38" s="346"/>
-      <c r="H38" s="341"/>
-      <c r="I38" s="342"/>
+      <c r="G38" s="358"/>
+      <c r="H38" s="353"/>
+      <c r="I38" s="354"/>
       <c r="J38" s="173"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="319">
+      <c r="B39" s="361">
         <v>254.5</v>
       </c>
-      <c r="C39" s="320"/>
+      <c r="C39" s="362"/>
       <c r="D39" s="98"/>
-      <c r="E39" s="332" t="s">
+      <c r="E39" s="372" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="280"/>
-      <c r="G39" s="333"/>
+      <c r="F39" s="278"/>
+      <c r="G39" s="373"/>
       <c r="H39" s="173"/>
       <c r="I39" s="173"/>
       <c r="J39" s="173"/>
@@ -11008,19 +11043,19 @@
       <c r="A40" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="319">
+      <c r="B40" s="361">
         <v>56.9</v>
       </c>
-      <c r="C40" s="320"/>
+      <c r="C40" s="362"/>
       <c r="D40" s="98"/>
       <c r="E40" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="325">
+      <c r="F40" s="365">
         <f ca="1">(TODAY()-B14)/365</f>
-        <v>12.013698630136986</v>
-      </c>
-      <c r="G40" s="326"/>
+        <v>12.361643835616439</v>
+      </c>
+      <c r="G40" s="366"/>
       <c r="H40" s="173"/>
       <c r="I40" s="173"/>
       <c r="J40" s="173"/>
@@ -11029,19 +11064,19 @@
       <c r="A41" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="319">
+      <c r="B41" s="361">
         <v>0</v>
       </c>
-      <c r="C41" s="320"/>
+      <c r="C41" s="362"/>
       <c r="D41" s="98"/>
       <c r="E41" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="327">
+      <c r="F41" s="367">
         <f ca="1">ROUND((F40*0.025+0.5)/100*B10,1)</f>
-        <v>216.9</v>
-      </c>
-      <c r="G41" s="328"/>
+        <v>219.3</v>
+      </c>
+      <c r="G41" s="368"/>
       <c r="H41" s="98"/>
       <c r="I41" s="98"/>
       <c r="J41" s="98"/>
@@ -11050,19 +11085,19 @@
       <c r="A42" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="319">
+      <c r="B42" s="361">
         <v>80</v>
       </c>
-      <c r="C42" s="320"/>
+      <c r="C42" s="362"/>
       <c r="D42" s="98"/>
       <c r="E42" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="329">
+      <c r="F42" s="369">
         <f>F10</f>
         <v>136</v>
       </c>
-      <c r="G42" s="328"/>
+      <c r="G42" s="368"/>
       <c r="H42" s="98"/>
       <c r="I42" s="98"/>
       <c r="J42" s="98"/>
@@ -11071,19 +11106,19 @@
       <c r="A43" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="319">
+      <c r="B43" s="361">
         <v>5372.5</v>
       </c>
-      <c r="C43" s="320"/>
+      <c r="C43" s="362"/>
       <c r="D43" s="98"/>
       <c r="E43" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="F43" s="329">
+      <c r="F43" s="369">
         <f ca="1">F42-F41</f>
-        <v>-80.900000000000006</v>
-      </c>
-      <c r="G43" s="328"/>
+        <v>-83.300000000000011</v>
+      </c>
+      <c r="G43" s="368"/>
       <c r="H43" s="98"/>
       <c r="I43" s="98"/>
       <c r="J43" s="98"/>
@@ -11092,19 +11127,19 @@
       <c r="A44" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="319">
+      <c r="B44" s="361">
         <v>0</v>
       </c>
-      <c r="C44" s="320"/>
+      <c r="C44" s="362"/>
       <c r="D44" s="98"/>
       <c r="E44" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="330" t="str">
+      <c r="F44" s="370" t="str">
         <f ca="1">ROUND(F43/F42*100,1)&amp;"%"</f>
-        <v>-59.5%</v>
-      </c>
-      <c r="G44" s="331"/>
+        <v>-61.3%</v>
+      </c>
+      <c r="G44" s="371"/>
       <c r="H44" s="98"/>
       <c r="I44" s="98"/>
       <c r="J44" s="98"/>
@@ -11143,11 +11178,11 @@
       <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="317" t="s">
+      <c r="A48" s="359" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="318"/>
-      <c r="C48" s="318"/>
+      <c r="B48" s="360"/>
+      <c r="C48" s="360"/>
       <c r="D48" s="98"/>
       <c r="E48" s="98"/>
       <c r="F48" s="98"/>
@@ -11156,9 +11191,9 @@
       <c r="I48" s="119"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="317"/>
-      <c r="B49" s="318"/>
-      <c r="C49" s="318"/>
+      <c r="A49" s="359"/>
+      <c r="B49" s="360"/>
+      <c r="C49" s="360"/>
       <c r="D49" s="98"/>
       <c r="E49" s="98"/>
       <c r="F49" s="98"/>
@@ -11167,9 +11202,9 @@
       <c r="I49" s="119"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="317"/>
-      <c r="B50" s="318"/>
-      <c r="C50" s="318"/>
+      <c r="A50" s="359"/>
+      <c r="B50" s="360"/>
+      <c r="C50" s="360"/>
       <c r="D50" s="98"/>
       <c r="E50" s="98"/>
       <c r="F50" s="98"/>
@@ -11178,9 +11213,9 @@
       <c r="I50" s="119"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="317"/>
-      <c r="B51" s="318"/>
-      <c r="C51" s="318"/>
+      <c r="A51" s="359"/>
+      <c r="B51" s="360"/>
+      <c r="C51" s="360"/>
       <c r="D51" s="98"/>
       <c r="E51" s="98"/>
       <c r="F51" s="98"/>
@@ -11189,9 +11224,9 @@
       <c r="I51" s="119"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="317"/>
-      <c r="B52" s="318"/>
-      <c r="C52" s="318"/>
+      <c r="A52" s="359"/>
+      <c r="B52" s="360"/>
+      <c r="C52" s="360"/>
       <c r="D52" s="98"/>
       <c r="E52" s="98"/>
       <c r="F52" s="98"/>
@@ -11211,47 +11246,7 @@
       <c r="I53" s="122"/>
     </row>
   </sheetData>
-  <sheetProtection password="C9BD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="54">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F35:I35"/>
     <mergeCell ref="A48:C52"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B33:C33"/>
@@ -11267,6 +11262,45 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="E39:G39"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11276,17 +11310,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="8" width="9" style="163"/>
-    <col min="9" max="9" width="17.21875" style="163" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="163" customWidth="1"/>
     <col min="10" max="16384" width="9" style="163"/>
   </cols>
   <sheetData>
@@ -11331,14 +11365,14 @@
       <c r="A4" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="360"/>
-      <c r="C4" s="360"/>
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
       <c r="D4" s="123"/>
       <c r="E4" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="360"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
       <c r="H4" s="123"/>
       <c r="I4" s="128"/>
     </row>
@@ -11346,20 +11380,20 @@
       <c r="A5" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="373" t="str">
+      <c r="B5" s="379" t="str">
         <f>Input!B5</f>
         <v>华舟1</v>
       </c>
-      <c r="C5" s="374"/>
+      <c r="C5" s="380"/>
       <c r="D5" s="98"/>
       <c r="E5" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="375">
+      <c r="F5" s="391">
         <f>Input!F5</f>
         <v>149.80000000000001</v>
       </c>
-      <c r="G5" s="376"/>
+      <c r="G5" s="392"/>
       <c r="H5" s="98" t="s">
         <v>138</v>
       </c>
@@ -11369,20 +11403,20 @@
       <c r="A6" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="373">
+      <c r="B6" s="379">
         <f>Input!B6</f>
         <v>2006</v>
       </c>
-      <c r="C6" s="374"/>
+      <c r="C6" s="380"/>
       <c r="D6" s="98"/>
       <c r="E6" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="375">
+      <c r="F6" s="391">
         <f>Input!F6</f>
         <v>6252.1</v>
       </c>
-      <c r="G6" s="376"/>
+      <c r="G6" s="392"/>
       <c r="H6" s="98" t="s">
         <v>139</v>
       </c>
@@ -11392,19 +11426,19 @@
       <c r="A7" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="373" t="str">
+      <c r="B7" s="379" t="str">
         <f>Input!B7</f>
         <v>30#</v>
       </c>
-      <c r="C7" s="374"/>
+      <c r="C7" s="380"/>
       <c r="D7" s="98"/>
       <c r="E7" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="363">
+      <c r="F7" s="318">
         <v>0</v>
       </c>
-      <c r="G7" s="364"/>
+      <c r="G7" s="319"/>
       <c r="H7" s="98" t="s">
         <v>138</v>
       </c>
@@ -11414,19 +11448,19 @@
       <c r="A8" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="373" t="str">
+      <c r="B8" s="379" t="str">
         <f>Input!B8</f>
         <v>煤炭</v>
       </c>
-      <c r="C8" s="374"/>
+      <c r="C8" s="380"/>
       <c r="D8" s="98"/>
       <c r="E8" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="363">
+      <c r="F8" s="318">
         <v>0</v>
       </c>
-      <c r="G8" s="364"/>
+      <c r="G8" s="319"/>
       <c r="H8" s="98" t="s">
         <v>138</v>
       </c>
@@ -11436,19 +11470,19 @@
       <c r="A9" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="373">
+      <c r="B9" s="379">
         <f>Input!B9</f>
         <v>26700</v>
       </c>
-      <c r="C9" s="374"/>
+      <c r="C9" s="380"/>
       <c r="D9" s="98"/>
       <c r="E9" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="363">
+      <c r="F9" s="318">
         <v>0</v>
       </c>
-      <c r="G9" s="364"/>
+      <c r="G9" s="319"/>
       <c r="H9" s="98" t="s">
         <v>138</v>
       </c>
@@ -11458,20 +11492,20 @@
       <c r="A10" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="373">
+      <c r="B10" s="379">
         <f>Input!B10</f>
         <v>27100</v>
       </c>
-      <c r="C10" s="374"/>
+      <c r="C10" s="380"/>
       <c r="D10" s="98"/>
       <c r="E10" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="377">
+      <c r="F10" s="385">
         <f>Input!F10</f>
         <v>136</v>
       </c>
-      <c r="G10" s="378"/>
+      <c r="G10" s="386"/>
       <c r="H10" s="98" t="s">
         <v>167</v>
       </c>
@@ -11481,43 +11515,43 @@
       <c r="A11" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="373" t="str">
+      <c r="B11" s="379" t="str">
         <f>Input!B11</f>
         <v>福州</v>
       </c>
-      <c r="C11" s="374"/>
+      <c r="C11" s="380"/>
       <c r="D11" s="98"/>
       <c r="E11" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="379">
+      <c r="F11" s="387">
         <f>Input!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="380"/>
+      <c r="G11" s="388"/>
       <c r="H11" s="98" t="s">
         <v>138</v>
       </c>
       <c r="I11" s="130"/>
     </row>
-    <row r="12" spans="1:9" ht="16.8">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="373" t="str">
+      <c r="B12" s="379" t="str">
         <f>Input!B12</f>
         <v>南通港</v>
       </c>
-      <c r="C12" s="374"/>
+      <c r="C12" s="380"/>
       <c r="D12" s="98"/>
       <c r="E12" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="381">
+      <c r="F12" s="389">
         <f>Input!F12</f>
         <v>1.026</v>
       </c>
-      <c r="G12" s="382"/>
+      <c r="G12" s="390"/>
       <c r="H12" s="98" t="s">
         <v>137</v>
       </c>
@@ -11527,43 +11561,43 @@
       <c r="A13" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="373" t="str">
+      <c r="B13" s="379" t="str">
         <f>Input!B13</f>
         <v>浙江方圆造船有限公司</v>
       </c>
-      <c r="C13" s="374"/>
+      <c r="C13" s="380"/>
       <c r="D13" s="98"/>
       <c r="E13" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="387" t="str">
+      <c r="F13" s="383" t="str">
         <f>Input!F13</f>
         <v>WX16-001</v>
       </c>
-      <c r="G13" s="388"/>
-      <c r="H13" s="356"/>
-      <c r="I13" s="357"/>
+      <c r="G13" s="384"/>
+      <c r="H13" s="339"/>
+      <c r="I13" s="340"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="383">
+      <c r="B14" s="381">
         <f>Input!B14</f>
         <v>39714</v>
       </c>
-      <c r="C14" s="384"/>
+      <c r="C14" s="382"/>
       <c r="D14" s="124"/>
       <c r="E14" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="387">
+      <c r="F14" s="383">
         <f>Input!F14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="388"/>
-      <c r="H14" s="356"/>
-      <c r="I14" s="357"/>
+      <c r="G14" s="384"/>
+      <c r="H14" s="339"/>
+      <c r="I14" s="340"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="118"/>
@@ -11632,12 +11666,12 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="347">
+      <c r="A19" s="341">
         <v>10.28</v>
       </c>
       <c r="B19" s="144"/>
       <c r="C19" s="144"/>
-      <c r="D19" s="348">
+      <c r="D19" s="342">
         <v>10.28</v>
       </c>
       <c r="E19" s="141"/>
@@ -11647,10 +11681,10 @@
       <c r="I19" s="143"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="347"/>
+      <c r="A20" s="341"/>
       <c r="B20" s="144"/>
       <c r="C20" s="144"/>
-      <c r="D20" s="348"/>
+      <c r="D20" s="342"/>
       <c r="E20" s="145" t="s">
         <v>41</v>
       </c>
@@ -11704,12 +11738,12 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="347">
+      <c r="A23" s="341">
         <v>10.36</v>
       </c>
       <c r="B23" s="144"/>
       <c r="C23" s="144"/>
-      <c r="D23" s="349">
+      <c r="D23" s="343">
         <v>10.4</v>
       </c>
       <c r="E23" s="141"/>
@@ -11719,10 +11753,10 @@
       <c r="I23" s="143"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="347"/>
+      <c r="A24" s="341"/>
       <c r="B24" s="144"/>
       <c r="C24" s="144"/>
-      <c r="D24" s="349"/>
+      <c r="D24" s="343"/>
       <c r="E24" s="145" t="s">
         <v>43</v>
       </c>
@@ -11786,12 +11820,12 @@
       <c r="I27" s="143"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="347">
+      <c r="A28" s="341">
         <v>10.34</v>
       </c>
       <c r="B28" s="144"/>
       <c r="C28" s="144"/>
-      <c r="D28" s="349">
+      <c r="D28" s="343">
         <v>10.34</v>
       </c>
       <c r="E28" s="145" t="s">
@@ -11810,10 +11844,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="347"/>
+      <c r="A29" s="341"/>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
-      <c r="D29" s="349"/>
+      <c r="D29" s="343"/>
       <c r="E29" s="141"/>
       <c r="F29" s="142"/>
       <c r="G29" s="142"/>
@@ -11834,12 +11868,12 @@
         <v>43</v>
       </c>
       <c r="F30" s="151"/>
-      <c r="G30" s="334" t="str">
+      <c r="G30" s="344" t="str">
         <f>IF(ABS(H26)&lt;ABS(H24),"拱垂异常！请复核船舶吃水！！","合理")</f>
         <v>合理</v>
       </c>
-      <c r="H30" s="335"/>
-      <c r="I30" s="336"/>
+      <c r="H30" s="345"/>
+      <c r="I30" s="346"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="118"/>
@@ -11871,154 +11905,154 @@
       <c r="A33" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="365">
+      <c r="B33" s="320">
         <v>10.318</v>
       </c>
-      <c r="C33" s="366"/>
+      <c r="C33" s="321"/>
       <c r="D33" s="98"/>
       <c r="E33" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="385" t="str">
+      <c r="F33" s="376" t="str">
         <f>Input!F33</f>
         <v>福州开发区新电燃料有限公司</v>
       </c>
-      <c r="G33" s="386"/>
-      <c r="H33" s="341"/>
-      <c r="I33" s="342"/>
+      <c r="G33" s="377"/>
+      <c r="H33" s="353"/>
+      <c r="I33" s="354"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="389">
+      <c r="B34" s="374">
         <v>33434.400000000001</v>
       </c>
-      <c r="C34" s="390"/>
+      <c r="C34" s="375"/>
       <c r="D34" s="98"/>
       <c r="E34" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="385" t="str">
+      <c r="F34" s="376" t="str">
         <f>Input!F34</f>
         <v>CCIC-2020-2-0010</v>
       </c>
-      <c r="G34" s="386"/>
-      <c r="H34" s="341"/>
-      <c r="I34" s="342"/>
+      <c r="G34" s="377"/>
+      <c r="H34" s="353"/>
+      <c r="I34" s="354"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="365">
+      <c r="B35" s="320">
         <v>36.347000000000001</v>
       </c>
-      <c r="C35" s="366"/>
+      <c r="C35" s="321"/>
       <c r="D35" s="98"/>
       <c r="E35" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="339" t="s">
+      <c r="F35" s="351" t="s">
         <v>224</v>
       </c>
-      <c r="G35" s="341"/>
-      <c r="H35" s="341"/>
-      <c r="I35" s="342"/>
+      <c r="G35" s="353"/>
+      <c r="H35" s="353"/>
+      <c r="I35" s="354"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="363">
+      <c r="B36" s="318">
         <v>3.141</v>
       </c>
-      <c r="C36" s="364"/>
+      <c r="C36" s="319"/>
       <c r="D36" s="98"/>
       <c r="E36" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="343">
+      <c r="F36" s="355">
         <v>43901</v>
       </c>
-      <c r="G36" s="344"/>
-      <c r="H36" s="341"/>
-      <c r="I36" s="342"/>
+      <c r="G36" s="356"/>
+      <c r="H36" s="353"/>
+      <c r="I36" s="354"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="365">
+      <c r="B37" s="320">
         <v>589.20000000000005</v>
       </c>
-      <c r="C37" s="366"/>
+      <c r="C37" s="321"/>
       <c r="D37" s="98"/>
       <c r="E37" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="F37" s="345" t="s">
+      <c r="F37" s="357" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="346"/>
-      <c r="H37" s="341"/>
-      <c r="I37" s="342"/>
+      <c r="G37" s="358"/>
+      <c r="H37" s="353"/>
+      <c r="I37" s="354"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="365">
+      <c r="B38" s="320">
         <v>552.85299999999995</v>
       </c>
-      <c r="C38" s="366"/>
+      <c r="C38" s="321"/>
       <c r="D38" s="98"/>
       <c r="E38" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="345" t="s">
+      <c r="F38" s="357" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="346"/>
-      <c r="H38" s="341"/>
-      <c r="I38" s="342"/>
+      <c r="G38" s="358"/>
+      <c r="H38" s="353"/>
+      <c r="I38" s="354"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="389">
+      <c r="B39" s="374">
         <v>254.5</v>
       </c>
-      <c r="C39" s="390"/>
+      <c r="C39" s="375"/>
       <c r="D39" s="98"/>
-      <c r="E39" s="332" t="s">
+      <c r="E39" s="372" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="280"/>
-      <c r="G39" s="333"/>
-      <c r="H39" s="391" t="s">
+      <c r="F39" s="278"/>
+      <c r="G39" s="373"/>
+      <c r="H39" s="378" t="s">
         <v>180</v>
       </c>
-      <c r="I39" s="280"/>
+      <c r="I39" s="278"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="389">
+      <c r="B40" s="374">
         <v>55.7</v>
       </c>
-      <c r="C40" s="390"/>
+      <c r="C40" s="375"/>
       <c r="D40" s="98"/>
       <c r="E40" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="325">
+      <c r="F40" s="365">
         <f ca="1">(TODAY()-B14)/365</f>
-        <v>12.013698630136986</v>
-      </c>
-      <c r="G40" s="326"/>
+        <v>12.361643835616439</v>
+      </c>
+      <c r="G40" s="366"/>
       <c r="H40" s="98" t="s">
         <v>181</v>
       </c>
@@ -12031,19 +12065,19 @@
       <c r="A41" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="389">
+      <c r="B41" s="374">
         <v>0</v>
       </c>
-      <c r="C41" s="390"/>
+      <c r="C41" s="375"/>
       <c r="D41" s="98"/>
       <c r="E41" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="327">
+      <c r="F41" s="367">
         <f ca="1">ROUND((F40*0.025+0.5)/100*B10,1)</f>
-        <v>216.9</v>
-      </c>
-      <c r="G41" s="328"/>
+        <v>219.3</v>
+      </c>
+      <c r="G41" s="368"/>
       <c r="H41" s="98" t="s">
         <v>182</v>
       </c>
@@ -12056,19 +12090,19 @@
       <c r="A42" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="389">
+      <c r="B42" s="374">
         <v>76.400000000000006</v>
       </c>
-      <c r="C42" s="390"/>
+      <c r="C42" s="375"/>
       <c r="D42" s="98"/>
       <c r="E42" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="329">
+      <c r="F42" s="369">
         <f>F10</f>
         <v>136</v>
       </c>
-      <c r="G42" s="328"/>
+      <c r="G42" s="368"/>
       <c r="H42" s="98" t="s">
         <v>183</v>
       </c>
@@ -12081,19 +12115,19 @@
       <c r="A43" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="389">
+      <c r="B43" s="374">
         <v>180.7</v>
       </c>
-      <c r="C43" s="390"/>
+      <c r="C43" s="375"/>
       <c r="D43" s="98"/>
       <c r="E43" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="F43" s="329">
+      <c r="F43" s="369">
         <f ca="1">F42-F41</f>
-        <v>-80.900000000000006</v>
-      </c>
-      <c r="G43" s="328"/>
+        <v>-83.300000000000011</v>
+      </c>
+      <c r="G43" s="368"/>
       <c r="H43" s="98" t="s">
         <v>184</v>
       </c>
@@ -12106,19 +12140,19 @@
       <c r="A44" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="389">
+      <c r="B44" s="374">
         <v>0</v>
       </c>
-      <c r="C44" s="390"/>
+      <c r="C44" s="375"/>
       <c r="D44" s="98"/>
       <c r="E44" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="330" t="str">
+      <c r="F44" s="370" t="str">
         <f ca="1">ROUND(F43/F42*100,1)&amp;"%"</f>
-        <v>-59.5%</v>
-      </c>
-      <c r="G44" s="331"/>
+        <v>-61.3%</v>
+      </c>
+      <c r="G44" s="371"/>
       <c r="H44" s="98" t="s">
         <v>175</v>
       </c>
@@ -12161,11 +12195,11 @@
       <c r="I47" s="117"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="317" t="s">
+      <c r="A48" s="359" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="318"/>
-      <c r="C48" s="318"/>
+      <c r="B48" s="360"/>
+      <c r="C48" s="360"/>
       <c r="D48" s="98"/>
       <c r="E48" s="98"/>
       <c r="F48" s="98"/>
@@ -12174,9 +12208,9 @@
       <c r="I48" s="119"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="317"/>
-      <c r="B49" s="318"/>
-      <c r="C49" s="318"/>
+      <c r="A49" s="359"/>
+      <c r="B49" s="360"/>
+      <c r="C49" s="360"/>
       <c r="D49" s="98"/>
       <c r="E49" s="98"/>
       <c r="F49" s="98"/>
@@ -12185,9 +12219,9 @@
       <c r="I49" s="119"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="317"/>
-      <c r="B50" s="318"/>
-      <c r="C50" s="318"/>
+      <c r="A50" s="359"/>
+      <c r="B50" s="360"/>
+      <c r="C50" s="360"/>
       <c r="D50" s="98"/>
       <c r="E50" s="98"/>
       <c r="F50" s="98"/>
@@ -12196,9 +12230,9 @@
       <c r="I50" s="119"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="317"/>
-      <c r="B51" s="318"/>
-      <c r="C51" s="318"/>
+      <c r="A51" s="359"/>
+      <c r="B51" s="360"/>
+      <c r="C51" s="360"/>
       <c r="D51" s="98"/>
       <c r="E51" s="98"/>
       <c r="F51" s="98"/>
@@ -12207,9 +12241,9 @@
       <c r="I51" s="119"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="317"/>
-      <c r="B52" s="318"/>
-      <c r="C52" s="318"/>
+      <c r="A52" s="359"/>
+      <c r="B52" s="360"/>
+      <c r="C52" s="360"/>
       <c r="D52" s="98"/>
       <c r="E52" s="98"/>
       <c r="F52" s="98"/>
@@ -12229,32 +12263,25 @@
       <c r="I53" s="122"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qm4Z9NXxLbxQwSOlLv45pE7Xnk/hHASBJT/tICcRKBSnqyg6+u70xdgflRxDaxr+vuxXl6YEUNf4KBTnNFl/Nw==" saltValue="FSp/j8uBiQf9cWqvGsR6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="55">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A48:C52"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -12268,24 +12295,30 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A48:C52"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
